--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -18,10 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,12 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,60 +448,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>birthday</t>
+          <t>days_watched</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>days_watched</t>
+          <t>mean_score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mean_score</t>
+          <t>watching</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>watching</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>on_hold</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>on_hold</t>
+          <t>dropped</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>dropped</t>
+          <t>plan_to_watch</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>plan_to_watch</t>
+          <t>total_entries</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>total_entries</t>
+          <t>rewatched</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>rewatched</t>
+          <t>episodes_watched</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>episodes_watched</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>age_group</t>
         </is>
@@ -520,40 +511,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>31110</v>
+      <c r="C2" t="n">
+        <v>142.3</v>
       </c>
       <c r="D2" t="n">
-        <v>142.3</v>
+        <v>7.37</v>
       </c>
       <c r="E2" t="n">
-        <v>7.37</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="G2" t="n">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>64</v>
+        <v>399</v>
       </c>
       <c r="K2" t="n">
-        <v>399</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
-        <v>60</v>
-      </c>
-      <c r="M2" t="n">
         <v>8481</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -568,38 +556,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>69.5</v>
+      </c>
       <c r="D3" t="n">
-        <v>69.5</v>
+        <v>7.36</v>
       </c>
       <c r="E3" t="n">
-        <v>7.36</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="G3" t="n">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="H3" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
-      </c>
-      <c r="M3" t="n">
         <v>4121</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -610,114 +597,111 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>212.8</v>
+      </c>
       <c r="D4" t="n">
-        <v>212.8</v>
+        <v>6.68</v>
       </c>
       <c r="E4" t="n">
-        <v>6.68</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>636</v>
       </c>
       <c r="G4" t="n">
-        <v>636</v>
+        <v>303</v>
       </c>
       <c r="H4" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" t="n">
         <v>12781</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>9</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>7.71</v>
       </c>
       <c r="E5" t="n">
-        <v>7.71</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>66</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
         <v>1817</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>18</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>51.9</v>
+      </c>
       <c r="D6" t="n">
-        <v>51.9</v>
+        <v>6.27</v>
       </c>
       <c r="E6" t="n">
-        <v>6.27</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G6" t="n">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="K6" t="n">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="L6" t="n">
-        <v>42</v>
-      </c>
-      <c r="M6" t="n">
         <v>3038</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -728,40 +712,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>32167</v>
+      <c r="C7" t="n">
+        <v>73.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>73.09999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="E7" t="n">
-        <v>8.06</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
+        <v>94</v>
+      </c>
+      <c r="G7" t="n">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
-        <v>94</v>
-      </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="K7" t="n">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" t="n">
         <v>4374</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -772,40 +753,37 @@
         <v>23</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" s="2" t="n">
-        <v>32195</v>
+      <c r="C8" t="n">
+        <v>142.5</v>
       </c>
       <c r="D8" t="n">
-        <v>142.5</v>
+        <v>7.41</v>
       </c>
       <c r="E8" t="n">
-        <v>7.41</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="G8" t="n">
-        <v>298</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>392</v>
       </c>
       <c r="K8" t="n">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
         <v>8565</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -820,38 +798,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>303.3</v>
+      </c>
       <c r="D9" t="n">
-        <v>303.3</v>
+        <v>5.95</v>
       </c>
       <c r="E9" t="n">
-        <v>5.95</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>1282</v>
       </c>
       <c r="G9" t="n">
-        <v>1282</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>55</v>
+        <v>347</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>1744</v>
       </c>
       <c r="K9" t="n">
-        <v>1744</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
-      </c>
-      <c r="M9" t="n">
         <v>18197</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -862,40 +839,37 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>31946</v>
+      <c r="C10" t="n">
+        <v>22.7</v>
       </c>
       <c r="D10" t="n">
-        <v>22.7</v>
+        <v>8.07</v>
       </c>
       <c r="E10" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="G10" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="K10" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
         <v>1346</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -910,18 +884,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>18.6</v>
+      </c>
       <c r="D11" t="n">
-        <v>18.6</v>
+        <v>7.6</v>
       </c>
       <c r="E11" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>37</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>37</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -930,18 +906,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>37</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
         <v>1083</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -952,38 +925,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>34.5</v>
+      </c>
       <c r="D12" t="n">
-        <v>34.5</v>
+        <v>6.84</v>
       </c>
       <c r="E12" t="n">
-        <v>6.84</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="G12" t="n">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="K12" t="n">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
         <v>2054</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -994,40 +966,37 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>32142</v>
+      <c r="C13" t="n">
+        <v>197.2</v>
       </c>
       <c r="D13" t="n">
-        <v>197.2</v>
+        <v>6.28</v>
       </c>
       <c r="E13" t="n">
-        <v>6.28</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>488</v>
       </c>
       <c r="G13" t="n">
-        <v>488</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>559</v>
       </c>
       <c r="K13" t="n">
-        <v>559</v>
+        <v>283</v>
       </c>
       <c r="L13" t="n">
-        <v>283</v>
-      </c>
-      <c r="M13" t="n">
         <v>12349</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -1038,18 +1007,20 @@
         <v>53</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>11.7</v>
+      </c>
       <c r="D14" t="n">
-        <v>11.7</v>
+        <v>9.25</v>
       </c>
       <c r="E14" t="n">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>52</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>52</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1058,18 +1029,15 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>52</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
-        <v>52</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
         <v>706</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1080,40 +1048,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>32913</v>
+      <c r="C15" t="n">
+        <v>70.59999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>70.59999999999999</v>
+        <v>7.53</v>
       </c>
       <c r="E15" t="n">
-        <v>7.53</v>
+        <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="G15" t="n">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="K15" t="n">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="L15" t="n">
-        <v>50</v>
-      </c>
-      <c r="M15" t="n">
         <v>4094</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -1124,38 +1089,37 @@
         <v>67</v>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>48.4</v>
+      </c>
       <c r="D16" t="n">
-        <v>48.4</v>
+        <v>8.23</v>
       </c>
       <c r="E16" t="n">
-        <v>8.23</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="G16" t="n">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="K16" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
         <v>2809</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1166,40 +1130,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>30629</v>
+      <c r="C17" t="n">
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>7.18</v>
       </c>
       <c r="E17" t="n">
-        <v>7.18</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="G17" t="n">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="K17" t="n">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
-      </c>
-      <c r="M17" t="n">
         <v>4696</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>senior</t>
         </is>
@@ -1210,38 +1171,37 @@
         <v>71</v>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>22.9</v>
+      </c>
       <c r="D18" t="n">
-        <v>22.9</v>
+        <v>8.01</v>
       </c>
       <c r="E18" t="n">
-        <v>8.01</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G18" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>80</v>
+      </c>
+      <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="n">
-        <v>80</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
         <v>1295</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1252,38 +1212,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>20.5</v>
+      </c>
       <c r="D19" t="n">
-        <v>20.5</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>8.369999999999999</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
         <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>76</v>
+      </c>
+      <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="n">
-        <v>76</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
         <v>1179</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1294,78 +1253,74 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>67.5</v>
+      </c>
       <c r="D20" t="n">
-        <v>67.5</v>
+        <v>6.38</v>
       </c>
       <c r="E20" t="n">
-        <v>6.38</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="G20" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>312</v>
+      </c>
+      <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>312</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
         <v>3955</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>80</v>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" s="2" t="n">
-        <v>33535</v>
+      <c r="C21" t="n">
+        <v>12.2</v>
       </c>
       <c r="D21" t="n">
-        <v>12.2</v>
+        <v>7.1</v>
       </c>
       <c r="E21" t="n">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>41</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>41</v>
-      </c>
       <c r="J21" t="n">
+        <v>76</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
-        <v>76</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
         <v>744</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -1380,40 +1335,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>30606</v>
+      <c r="C22" t="n">
+        <v>66.2</v>
       </c>
       <c r="D22" t="n">
-        <v>66.2</v>
+        <v>8.08</v>
       </c>
       <c r="E22" t="n">
-        <v>8.08</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="G22" t="n">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
+        <v>161</v>
+      </c>
+      <c r="K22" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="n">
-        <v>161</v>
-      </c>
       <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
         <v>3948</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>senior</t>
         </is>
@@ -1428,40 +1380,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>32669</v>
+      <c r="C23" t="n">
+        <v>48.7</v>
       </c>
       <c r="D23" t="n">
-        <v>48.7</v>
+        <v>7.18</v>
       </c>
       <c r="E23" t="n">
-        <v>7.18</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="G23" t="n">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="H23" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="J23" t="n">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="K23" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
         <v>3027</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -1476,38 +1425,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>12.5</v>
+      </c>
       <c r="D24" t="n">
-        <v>12.5</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>8.710000000000001</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>24</v>
+      </c>
+      <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>24</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
         <v>745</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1518,40 +1466,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>32782</v>
+      <c r="C25" t="n">
+        <v>172.3</v>
       </c>
       <c r="D25" t="n">
-        <v>172.3</v>
+        <v>7.57</v>
       </c>
       <c r="E25" t="n">
-        <v>7.57</v>
+        <v>187</v>
       </c>
       <c r="F25" t="n">
-        <v>187</v>
+        <v>488</v>
       </c>
       <c r="G25" t="n">
-        <v>488</v>
+        <v>28</v>
       </c>
       <c r="H25" t="n">
         <v>28</v>
       </c>
       <c r="I25" t="n">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="J25" t="n">
-        <v>247</v>
+        <v>978</v>
       </c>
       <c r="K25" t="n">
-        <v>978</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
-      </c>
-      <c r="M25" t="n">
         <v>10384</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
@@ -1566,38 +1511,37 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>58.8</v>
+      </c>
       <c r="D26" t="n">
-        <v>58.8</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>8.289999999999999</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="G26" t="n">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I26" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="K26" t="n">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
-      </c>
-      <c r="M26" t="n">
         <v>3559</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1608,38 +1552,37 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>36.4</v>
+      </c>
       <c r="D27" t="n">
-        <v>36.4</v>
+        <v>6.66</v>
       </c>
       <c r="E27" t="n">
-        <v>6.66</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
+        <v>57</v>
+      </c>
+      <c r="G27" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="n">
-        <v>57</v>
-      </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I27" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J27" t="n">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="K27" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
         <v>2187</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1650,38 +1593,37 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>50.5</v>
+      </c>
       <c r="D28" t="n">
-        <v>50.5</v>
+        <v>6.09</v>
       </c>
       <c r="E28" t="n">
-        <v>6.09</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G28" t="n">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J28" t="n">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="K28" t="n">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="L28" t="n">
-        <v>42</v>
-      </c>
-      <c r="M28" t="n">
         <v>2974</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1694,7 +1636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,11 +1750,6 @@
           <t>episodes_class</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>aired_start_year</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1839,10 +1776,8 @@
       <c r="F2" t="n">
         <v>26</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Apr 3, 1998 to Apr 24, 1999</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1998</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1878,19 +1813,19 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" t="n">
         <v>42</v>
       </c>
       <c r="Q2" t="n">
-        <v>86242</v>
+        <v>86255</v>
       </c>
       <c r="R2" t="n">
-        <v>1014424</v>
+        <v>1014558</v>
       </c>
       <c r="S2" t="n">
-        <v>1964909</v>
+        <v>1965187</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -1901,9 +1836,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V2" t="n">
-        <v>1998</v>
       </c>
     </row>
     <row r="3">
@@ -1931,10 +1863,8 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sep 1, 2001</t>
-        </is>
+      <c r="G3" t="n">
+        <v>2001</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -1966,28 +1896,29 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P3" t="n">
         <v>639</v>
       </c>
       <c r="Q3" t="n">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="R3" t="n">
-        <v>224465</v>
+        <v>224491</v>
       </c>
       <c r="S3" t="n">
-        <v>396344</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>396379</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V3" t="n">
-        <v>2001</v>
       </c>
     </row>
     <row r="4">
@@ -2015,10 +1946,8 @@
       <c r="F4" t="n">
         <v>26</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Apr 1, 1998 to Sep 30, 1998</t>
-        </is>
+      <c r="G4" t="n">
+        <v>1998</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2054,19 +1983,19 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P4" t="n">
         <v>261</v>
       </c>
       <c r="Q4" t="n">
-        <v>16779</v>
+        <v>16780</v>
       </c>
       <c r="R4" t="n">
-        <v>387574</v>
+        <v>387605</v>
       </c>
       <c r="S4" t="n">
-        <v>799654</v>
+        <v>799739</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -2077,9 +2006,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V4" t="n">
-        <v>1998</v>
       </c>
     </row>
     <row r="5">
@@ -2107,10 +2033,8 @@
       <c r="F5" t="n">
         <v>26</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Jul 3, 2002 to Dec 25, 2002</t>
-        </is>
+      <c r="G5" t="n">
+        <v>2002</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2146,7 +2070,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3213</v>
+        <v>3176</v>
       </c>
       <c r="P5" t="n">
         <v>1942</v>
@@ -2155,10 +2079,10 @@
         <v>672</v>
       </c>
       <c r="R5" t="n">
-        <v>45200</v>
+        <v>45203</v>
       </c>
       <c r="S5" t="n">
-        <v>122664</v>
+        <v>122688</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -2169,9 +2093,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V5" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="6">
@@ -2199,10 +2120,8 @@
       <c r="F6" t="n">
         <v>52</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Sep 30, 2004 to Sep 29, 2005</t>
-        </is>
+      <c r="G6" t="n">
+        <v>2004</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2241,16 +2160,16 @@
         <v>4726</v>
       </c>
       <c r="P6" t="n">
-        <v>5637</v>
+        <v>5638</v>
       </c>
       <c r="Q6" t="n">
         <v>16</v>
       </c>
       <c r="R6" t="n">
-        <v>6952</v>
+        <v>6953</v>
       </c>
       <c r="S6" t="n">
-        <v>16258</v>
+        <v>16260</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -2261,9 +2180,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V6" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="7">
@@ -2291,10 +2207,8 @@
       <c r="F7" t="n">
         <v>145</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Apr 6, 2005 to Mar 19, 2008</t>
-        </is>
+      <c r="G7" t="n">
+        <v>2005</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2330,7 +2244,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="P7" t="n">
         <v>1361</v>
@@ -2342,7 +2256,7 @@
         <v>91608</v>
       </c>
       <c r="S7" t="n">
-        <v>190502</v>
+        <v>190549</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -2353,9 +2267,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V7" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="8">
@@ -2383,10 +2294,8 @@
       <c r="F8" t="n">
         <v>24</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Apr 15, 2005 to Sep 27, 2005</t>
-        </is>
+      <c r="G8" t="n">
+        <v>2005</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2422,7 +2331,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="P8" t="n">
         <v>944</v>
@@ -2431,10 +2340,10 @@
         <v>4172</v>
       </c>
       <c r="R8" t="n">
-        <v>85536</v>
+        <v>85543</v>
       </c>
       <c r="S8" t="n">
-        <v>277365</v>
+        <v>277422</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -2445,9 +2354,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V8" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="9">
@@ -2475,10 +2381,8 @@
       <c r="F9" t="n">
         <v>52</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Sep 11, 2002 to Sep 10, 2003</t>
-        </is>
+      <c r="G9" t="n">
+        <v>2002</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2517,16 +2421,16 @@
         <v>1827</v>
       </c>
       <c r="P9" t="n">
-        <v>4665</v>
+        <v>4667</v>
       </c>
       <c r="Q9" t="n">
         <v>244</v>
       </c>
       <c r="R9" t="n">
-        <v>13918</v>
+        <v>13919</v>
       </c>
       <c r="S9" t="n">
-        <v>26118</v>
+        <v>26125</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2537,9 +2441,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V9" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="10">
@@ -2567,10 +2468,8 @@
       <c r="F10" t="n">
         <v>24</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Apr 17, 2004 to Feb 18, 2006</t>
-        </is>
+      <c r="G10" t="n">
+        <v>2004</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2606,7 +2505,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P10" t="n">
         <v>1278</v>
@@ -2615,10 +2514,10 @@
         <v>1388</v>
       </c>
       <c r="R10" t="n">
-        <v>113299</v>
+        <v>113308</v>
       </c>
       <c r="S10" t="n">
-        <v>202815</v>
+        <v>202876</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2629,9 +2528,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V10" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="11">
@@ -2659,10 +2555,8 @@
       <c r="F11" t="n">
         <v>74</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Apr 7, 2004 to Sep 28, 2005</t>
-        </is>
+      <c r="G11" t="n">
+        <v>2004</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2704,13 +2598,13 @@
         <v>122</v>
       </c>
       <c r="Q11" t="n">
-        <v>57498</v>
+        <v>57506</v>
       </c>
       <c r="R11" t="n">
-        <v>465875</v>
+        <v>465965</v>
       </c>
       <c r="S11" t="n">
-        <v>1227165</v>
+        <v>1227446</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2721,9 +2615,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V11" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="12">
@@ -2751,10 +2642,8 @@
       <c r="F12" t="n">
         <v>220</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Oct 3, 2002 to Feb 8, 2007</t>
-        </is>
+      <c r="G12" t="n">
+        <v>2002</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2790,19 +2679,19 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P12" t="n">
         <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>82964</v>
+        <v>82973</v>
       </c>
       <c r="R12" t="n">
-        <v>2055991</v>
+        <v>2056155</v>
       </c>
       <c r="S12" t="n">
-        <v>2984625</v>
+        <v>2984928</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2813,26 +2702,23 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V12" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>5.85</v>
+        <v>8.73</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Adventure', 'Fantasy', 'Sci-Fi']</t>
+          <t>['Action', 'Adventure', 'Fantasy']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['robot servants known', 'unknown ties', 'unique doll', 'tragic past', 'skilled fighter', 'mysterious past', 'dolls ."', 'doll breeder', 'mars see', 'attack layla', 'mars', 'layla', 'layla', 'world', 'world', 'world', 'trio', 'travels', 'time', 'threat', 'strange', 'speedy', 'revealed', 'replaced', 'nei', 'nei', 'future', 'founders', 'companions', 'colonized', 'children', 'bit']</t>
+          <t>['coveted one piece treasure', 'prized one piece', 'together embracing perils', 'sailed dangerous seas', 'faces numerous challenges', 'luffy gathers one', 'although luffy lacks', 'countless powerful pirates', 'luffy ends', 'unbreakable spirit', 'terrible whirlpool', 'superhuman ability', 'resolutely pursues', 'pirates title', 'never return', 'mal rewrite', 'looking teenager', 'lifetime adventure', 'kind companions', 'formidable adversary', 'fearsome pirates', 'ever since', 'daring everyone', 'carefree monkey', 'big smile', 'barely surviving', 'ambitious endeavor', 'proper ship', 'late king', 'luffy', 'pirates', 'ship', 'king', 'written', 'world', 'wonders', 'whereabouts', 'unmatched', 'underestimated', 'stirred', 'sea', 'roger', 'riches', 'pirate', 'passing', 'obtain', 'naive', 'many', 'make', 'join', 'inspiration', 'hoard', 'gol', 'face', 'endowed', 'disclosing', 'despite', 'death', 'crew', 'comes', 'battle', 'barrel', 'attack', 'also', 'aboard']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2841,12 +2727,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Oct 2, 2003 to Dec 25, 2003</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2855,46 +2739,46 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Finished Airing</t>
+          <t>Currently Airing</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Yomiko Advertising']</t>
+          <t>['Fuji TV', 'TAP', 'Shueisha']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bee Train</t>
+          <t>Toei Animation</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Original</t>
+          <t>Manga</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
+          <t>PG-13 - Teens 13 or older</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>10791</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5347</v>
+        <v>17</v>
       </c>
       <c r="Q13" t="n">
-        <v>22</v>
+        <v>237054</v>
       </c>
       <c r="R13" t="n">
-        <v>7310</v>
+        <v>1433761</v>
       </c>
       <c r="S13" t="n">
-        <v>18711</v>
+        <v>2522600</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2903,28 +2787,25 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>2003</v>
+          <t>long</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>8.73</v>
+        <v>7.85</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Fantasy']</t>
+          <t>['Sports']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['coveted one piece treasure', 'prized one piece', 'together embracing perils', 'sailed dangerous seas', 'faces numerous challenges', 'luffy gathers one', 'although luffy lacks', 'countless powerful pirates', 'luffy ends', 'unbreakable spirit', 'terrible whirlpool', 'superhuman ability', 'resolutely pursues', 'pirates title', 'never return', 'mal rewrite', 'looking teenager', 'lifetime adventure', 'kind companions', 'formidable adversary', 'fearsome pirates', 'ever since', 'daring everyone', 'carefree monkey', 'big smile', 'barely surviving', 'ambitious endeavor', 'proper ship', 'late king', 'luffy', 'pirates', 'ship', 'king', 'written', 'world', 'wonders', 'whereabouts', 'unmatched', 'underestimated', 'stirred', 'sea', 'roger', 'riches', 'pirate', 'passing', 'obtain', 'naive', 'many', 'make', 'join', 'inspiration', 'hoard', 'gol', 'face', 'endowed', 'disclosing', 'despite', 'death', 'crew', 'comes', 'battle', 'barrel', 'attack', 'also', 'aboard']</t>
+          <t>['super rookie', '" seishun sets', 'best middle school tennis teams', 'school ranking matches despite', 'seishun academy — home', 'tennis prodigy ryouma echizen', 'best tennis player', 'japanese tennis scene', 'teammates must learn', 'team must qualify', 'tennis team', 'seishun boys', 'playing tennis', 'ryouma catches', 'unique ways', 'tokyo prefectural', 'strong schools', 'starting lineup', 'road ahead', 'national tournament', 'mal rewrite', 'kanto regionals', 'initially reluctant', 'determination convinces', 'coveted title', 'ryouma', 'playing', 'playing', 'yet', 'written', 'want', 'take', 'take', 'storm', 'spot', 'spot', 'skill', 'shared', 'returned', 'rest', 'request', 'reasons', 'ready', 'plethora', 'order', 'one', 'new', 'let', 'japan', 'intra', 'hoping', 'freshman', 'finds', 'father', 'eye', 'enrolls', 'due', 'country', 'cooperate', 'claim', 'champions', 'captain', 'become', 'become', 'aspire', 'armed', 'america', 'aiming', 'age', 'accept']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2933,12 +2814,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Oct 20, 1999 to ?</t>
-        </is>
+        <v>178</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2001</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2947,17 +2826,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Currently Airing</t>
+          <t>Finished Airing</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Fuji TV', 'TAP', 'Shueisha']</t>
+          <t>['Production I.G', 'TV Tokyo', 'Nihon Ad Systems']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Toei Animation</t>
+          <t>Trans Arts</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2966,7 +2845,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -2974,19 +2853,19 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>51</v>
+        <v>945</v>
       </c>
       <c r="P14" t="n">
-        <v>17</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
-        <v>237023</v>
+        <v>3046</v>
       </c>
       <c r="R14" t="n">
-        <v>1433526</v>
+        <v>86901</v>
       </c>
       <c r="S14" t="n">
-        <v>2522071</v>
+        <v>191982</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2997,17 +2876,14 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V14" t="n">
-        <v>1999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>7.85</v>
+        <v>6.36</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3016,7 +2892,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['super rookie', '" seishun sets', 'best middle school tennis teams', 'school ranking matches despite', 'seishun academy — home', 'tennis prodigy ryouma echizen', 'best tennis player', 'japanese tennis scene', 'teammates must learn', 'team must qualify', 'tennis team', 'seishun boys', 'playing tennis', 'ryouma catches', 'unique ways', 'tokyo prefectural', 'strong schools', 'starting lineup', 'road ahead', 'national tournament', 'mal rewrite', 'kanto regionals', 'initially reluctant', 'determination convinces', 'coveted title', 'ryouma', 'playing', 'playing', 'yet', 'written', 'want', 'take', 'take', 'storm', 'spot', 'spot', 'skill', 'shared', 'returned', 'rest', 'request', 'reasons', 'ready', 'plethora', 'order', 'one', 'new', 'let', 'japan', 'intra', 'hoping', 'freshman', 'finds', 'father', 'eye', 'enrolls', 'due', 'country', 'cooperate', 'claim', 'champions', 'captain', 'become', 'become', 'aspire', 'armed', 'america', 'aiming', 'age', 'accept']</t>
+          <t>['junior high boxing tournament', 'siblings takane kiku', 'takane ryuji aim', 'boxing arena', 'many rivals', 'kenzaki jun', 'dead father', 'champion title', 'battle begins', 'kiku', 'ryuji', 'ryuji', 'ryuji', 'battle', 'wish', 'trainer', 'source', 'sister', 'role', 'rival', 'order', 'maturing', 'led', 'learn', 'growth', 'fulfill', 'fighting', 'concentrate', 'brother', 'boxer', 'boomerang', 'begun', 'arch', 'ann', 'act']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3025,12 +2901,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>178</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Oct 10, 2001 to Mar 23, 2005</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2004</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3044,12 +2918,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Production I.G', 'TV Tokyo', 'Nihon Ad Systems']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Trans Arts</t>
+          <t>Toei Animation</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3058,27 +2932,27 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>PG-13 - Teens 13 or older</t>
+          <t>PG - Children</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>934</v>
+        <v>8021</v>
       </c>
       <c r="P15" t="n">
-        <v>1351</v>
+        <v>8769</v>
       </c>
       <c r="Q15" t="n">
-        <v>3046</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>86898</v>
+        <v>1799</v>
       </c>
       <c r="S15" t="n">
-        <v>191918</v>
+        <v>5423</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -3087,28 +2961,25 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>2001</v>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>6.36</v>
+        <v>7.88</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Sports']</t>
+          <t>['Comedy', 'Romance']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['junior high boxing tournament', 'siblings takane kiku', 'takane ryuji aim', 'boxing arena', 'many rivals', 'kenzaki jun', 'dead father', 'champion title', 'battle begins', 'kiku', 'ryuji', 'ryuji', 'ryuji', 'battle', 'wish', 'trainer', 'source', 'sister', 'role', 'rival', 'order', 'maturing', 'led', 'learn', 'growth', 'fulfill', 'fighting', 'concentrate', 'brother', 'boxer', 'boomerang', 'begun', 'arch', 'ann', 'act']</t>
+          <t>['octane romantic comedy full', 'everything changes —', 'cannot properly convey', 'high school romance', 'high school romance', 'school rumble', 'sizable reputation', 'similar situation', 'second year', 'relatable situations', 'mal rewrite', 'bittersweet trials', 'tenma tsukamoto', 'kenji harima', 'high', 'school', 'tenma', 'kenji', 'written', 'words', 'win', 'walk', 'two', 'try', 'rivalries', 'quest', 'plight', 'park', 'one', 'nature', 'misunderstandings', 'loves', 'love', 'likes', 'hobbies', 'hearts', 'friends', 'find', 'feelings', 'feelings', 'especially', 'desire', 'delinquent', 'confess', 'complicate', 'boy', '"']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3117,12 +2988,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Oct 6, 2004 to Dec 15, 2004</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2004</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3136,12 +3005,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['TV Tokyo', 'Sotsu', 'Marvelous Entertainment', 'Starchild Records', 'Media Factory', 'DAX Production']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Toei Animation</t>
+          <t>Studio Comet</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3154,23 +3023,23 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>PG - Children</t>
+          <t>PG-13 - Teens 13 or older</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>8020</v>
+        <v>877</v>
       </c>
       <c r="P16" t="n">
-        <v>8768</v>
+        <v>772</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>5301</v>
       </c>
       <c r="R16" t="n">
-        <v>1799</v>
+        <v>152563</v>
       </c>
       <c r="S16" t="n">
-        <v>5423</v>
+        <v>337409</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3179,42 +3048,37 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>2004</v>
+          <t>long</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Comedy', 'Sci-Fi', 'Ecchi']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['desert', '" junko asagiri', 'breasted desert babes', 'world long destroyed', 'great kanto desert', 'kanto desert', 'sunabouzu', '"', 'desert punk', 'desert people', 'desert offers', 'kanto sun', 'wondrous opportunity', 'weaknesses —', 'sweltering wasteland', 'senseless violence', 'normal people', 'masked handyman', 'mal rewrite', 'legendary reputation', 'insatiable lust', 'inhospitable dunes', 'fair population', 'easily swayed', 'damn thing', 'crude destruction', 'chaotic adventures', 'bizarre cast', 'apocalyptic japan', 'always finishing', 'sunabouzu features', 'long', 'sunabouzu', 'written', 'without', 'vixen', 'survival', 'spent', 'sand', 'ruthless', 'ruins', 'remains', 'post', 'perversion', 'personalities', 'person', 'one', 'nothing', 'nature', 'name', 'matter', 'make', 'little', 'like', 'left', 'least', 'learned', 'large', 'jobs', 'however', 'forged', 'forefathers', 'force', 'following', 'entertain', 'discovers', 'cunning', 'cost', 'cling', 'case', 'become']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>24</v>
       </c>
-      <c r="B17" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['Comedy', 'Romance']</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['octane romantic comedy full', 'everything changes —', 'cannot properly convey', 'high school romance', 'high school romance', 'school rumble', 'sizable reputation', 'similar situation', 'second year', 'relatable situations', 'mal rewrite', 'bittersweet trials', 'tenma tsukamoto', 'kenji harima', 'high', 'school', 'tenma', 'kenji', 'written', 'words', 'win', 'walk', 'two', 'try', 'rivalries', 'quest', 'plight', 'park', 'one', 'nature', 'misunderstandings', 'loves', 'love', 'likes', 'hobbies', 'hearts', 'friends', 'find', 'feelings', 'feelings', 'especially', 'desire', 'delinquent', 'confess', 'complicate', 'boy', '"']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>26</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Oct 5, 2004 to Mar 29, 2005</t>
-        </is>
+      <c r="G17" t="n">
+        <v>2004</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3228,12 +3092,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['TV Tokyo', 'Sotsu', 'Marvelous Entertainment', 'Starchild Records', 'Media Factory', 'DAX Production']</t>
+          <t>['GDH', 'Pony Canyon', 'CBC Television', 'Omnibus Promotion', 'RKB Mainichi Broadcasting Corporation']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Studio Comet</t>
+          <t>Gonzo</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3242,27 +3106,27 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>PG-13 - Teens 13 or older</t>
+          <t>R - 17+ (violence &amp; profanity)</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>863</v>
+        <v>2550</v>
       </c>
       <c r="P17" t="n">
-        <v>772</v>
+        <v>1695</v>
       </c>
       <c r="Q17" t="n">
-        <v>5301</v>
+        <v>860</v>
       </c>
       <c r="R17" t="n">
-        <v>152560</v>
+        <v>56864</v>
       </c>
       <c r="S17" t="n">
-        <v>337349</v>
+        <v>146257</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3273,26 +3137,23 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V17" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>7.36</v>
+        <v>7.75</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Comedy', 'Sci-Fi', 'Ecchi']</t>
+          <t>['Avant Garde', 'Drama', 'Mystery', 'Sci-Fi', 'Suspense']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['desert', '" junko asagiri', 'breasted desert babes', 'world long destroyed', 'great kanto desert', 'kanto desert', 'sunabouzu', '"', 'desert punk', 'desert people', 'desert offers', 'kanto sun', 'wondrous opportunity', 'weaknesses —', 'sweltering wasteland', 'senseless violence', 'normal people', 'masked handyman', 'mal rewrite', 'legendary reputation', 'insatiable lust', 'inhospitable dunes', 'fair population', 'easily swayed', 'damn thing', 'crude destruction', 'chaotic adventures', 'bizarre cast', 'apocalyptic japan', 'always finishing', 'sunabouzu features', 'long', 'sunabouzu', 'written', 'without', 'vixen', 'survival', 'spent', 'sand', 'ruthless', 'ruins', 'remains', 'post', 'perversion', 'personalities', 'person', 'one', 'nothing', 'nature', 'name', 'matter', 'make', 'little', 'like', 'left', 'least', 'learned', 'large', 'jobs', 'however', 'forged', 'forefathers', 'force', 'following', 'entertain', 'discovers', 'cunning', 'cost', 'cling', 'case', 'become']</t>
+          <t>['mysterious visitor named kazuho yoshii begins committing', 'group called organo led', 'various criminal factions', 'new actors emerge', 'keigo oonishi —', 'dark underground city', 'lux steadily plunges', 'young florist', 'texhnolyzed legs', 'righteous man', 'replace parts', 'recently texhnolyzed', 'rare substance', 'raffia production', 'raffia', '"', 'permit humans', 'people live', 'outer world', 'mining operation', 'mal rewrite', 'immune response', 'greatest crisis', 'fragile balance', 'executive authority', 'ever faced', 'elusive organization', 'cybernetic prostheses', 'conduct research', 'boxer mutilated', 'almost secluded', 'city ."', 'ran find', 'organo', 'city', 'city', 'ran', 'lux', 'lux', 'lux', 'être', 'written', 'voice', 'trigger', 'transplants', 'throats', 'texhnolyze', 'surface', 'series', 'self', 'see', 'rumored', 'rule', 'raison', 'puts', 'privilege', 'powers', 'particularity', 'midst', 'latter', 'kamata', 'involved', 'interaction', 'insanity', 'ichise', 'ichise', 'hosts', 'hear', 'gangs', 'gangs', 'future', 'fear', 'ex', 'eriko', 'doc', 'disturbed', 'despair', 'delegates', 'crimes', 'class', 'charge', 'chaos', 'body', 'basis', 'available', 'also']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3301,16 +3162,14 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Oct 6, 2004 to Mar 30, 2005</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2003</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3320,41 +3179,41 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['GDH', 'Pony Canyon', 'CBC Television', 'Omnibus Promotion', 'RKB Mainichi Broadcasting Corporation']</t>
+          <t>['Group TAC', 'Rondo Robe', 'Fuji TV', 'Pioneer LDC', 'Rakuonsha', 'Geneon Entertainment USA']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Gonzo</t>
+          <t>Madhouse</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Manga</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
+          <t>R+ - Mild Nudity</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2586</v>
+        <v>1172</v>
       </c>
       <c r="P18" t="n">
-        <v>1695</v>
+        <v>975</v>
       </c>
       <c r="Q18" t="n">
-        <v>860</v>
+        <v>5351</v>
       </c>
       <c r="R18" t="n">
-        <v>56859</v>
+        <v>60486</v>
       </c>
       <c r="S18" t="n">
-        <v>146241</v>
+        <v>269599</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -3363,28 +3222,25 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v>2004</v>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>7.75</v>
+        <v>7.28</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Avant Garde', 'Drama', 'Mystery', 'Sci-Fi', 'Suspense']</t>
+          <t>['Action', 'Fantasy', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['mysterious visitor named kazuho yoshii begins committing', 'group called organo led', 'various criminal factions', 'new actors emerge', 'keigo oonishi —', 'dark underground city', 'lux steadily plunges', 'young florist', 'texhnolyzed legs', 'righteous man', 'replace parts', 'recently texhnolyzed', 'rare substance', 'raffia production', 'raffia', '"', 'permit humans', 'people live', 'outer world', 'mining operation', 'mal rewrite', 'immune response', 'greatest crisis', 'fragile balance', 'executive authority', 'ever faced', 'elusive organization', 'cybernetic prostheses', 'conduct research', 'boxer mutilated', 'almost secluded', 'city ."', 'ran find', 'organo', 'city', 'city', 'ran', 'lux', 'lux', 'lux', 'être', 'written', 'voice', 'trigger', 'transplants', 'throats', 'texhnolyze', 'surface', 'series', 'self', 'see', 'rumored', 'rule', 'raison', 'puts', 'privilege', 'powers', 'particularity', 'midst', 'latter', 'kamata', 'involved', 'interaction', 'insanity', 'ichise', 'ichise', 'hosts', 'hear', 'gangs', 'gangs', 'future', 'fear', 'ex', 'eriko', 'doc', 'disturbed', 'despair', 'delegates', 'crimes', 'class', 'charge', 'chaos', 'body', 'basis', 'available', 'also']</t>
+          <t>['one day achieve peaceful coexistence', 'mankind faces yet another menace', 'priest abel nightroad —', 'agent sister esther blanchett', 'gentle young nun troubled', 'ax agents investigate vampire', 'fierce vampire slayer', 'two grow closer', 'rosenkreuz order strive', 'new human empire', 'extremist groups like', 'dark forces working', 'combat terrorist organizations', 'cardinal caterina sforza', 'avoid direct conflict', 'vatican papal state', 'ax unit', 'ax unit', 'uncover signs', 'tragic past', 'seemingly disoriented', 'related disturbances', 'malicious schemes', 'mal rewrite', 'hearted fellow', 'following armageddon', 'continuous confrontations', 'separate factions', 'deemed terrans', 'apocalyptic war', 'gentle', 'vatican', 'unit', 'war', 'terrans', 'factions', 'written', 'world', 'whereas', 'walk', 'vampires', 'vampires', 'vampires', 'split', 'shadows', 'riddled', 'rekindle', 'races', 'race', 'plague', 'path', 'partner', 'misfortune', 'might', 'methuselah', 'methuselah', 'memories', 'make', 'led', 'joining', 'implemented', 'humans', 'hopes', 'hearts', 'furthermore', 'force', 'despite', 'confront', 'brave', 'begin', 'battlefield', 'attempts', 'amongst', 'affiliated']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3393,12 +3249,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Apr 17, 2003 to Sep 25, 2003</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2005</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3412,41 +3266,41 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Group TAC', 'Rondo Robe', 'Fuji TV', 'Pioneer LDC', 'Rakuonsha', 'Geneon Entertainment USA']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Madhouse</t>
+          <t>Gonzo</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Original</t>
+          <t>Light novel</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>R+ - Mild Nudity</t>
+          <t>R - 17+ (violence &amp; profanity)</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>1184</v>
+        <v>2986</v>
       </c>
       <c r="P19" t="n">
-        <v>975</v>
+        <v>1347</v>
       </c>
       <c r="Q19" t="n">
-        <v>5355</v>
+        <v>1379</v>
       </c>
       <c r="R19" t="n">
-        <v>60480</v>
+        <v>82208</v>
       </c>
       <c r="S19" t="n">
-        <v>269532</v>
+        <v>192365</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3455,28 +3309,25 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v>2003</v>
+          <t>long</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>7.28</v>
+        <v>7.91</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Action', 'Fantasy', 'Sci-Fi']</t>
+          <t>['Comedy', 'Gourmet']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['one day achieve peaceful coexistence', 'mankind faces yet another menace', 'priest abel nightroad —', 'agent sister esther blanchett', 'gentle young nun troubled', 'ax agents investigate vampire', 'fierce vampire slayer', 'two grow closer', 'rosenkreuz order strive', 'new human empire', 'extremist groups like', 'dark forces working', 'combat terrorist organizations', 'cardinal caterina sforza', 'avoid direct conflict', 'vatican papal state', 'ax unit', 'ax unit', 'uncover signs', 'tragic past', 'seemingly disoriented', 'related disturbances', 'malicious schemes', 'mal rewrite', 'hearted fellow', 'following armageddon', 'continuous confrontations', 'separate factions', 'deemed terrans', 'apocalyptic war', 'gentle', 'vatican', 'unit', 'war', 'terrans', 'factions', 'written', 'world', 'whereas', 'walk', 'vampires', 'vampires', 'vampires', 'split', 'shadows', 'riddled', 'rekindle', 'races', 'race', 'plague', 'path', 'partner', 'misfortune', 'might', 'methuselah', 'methuselah', 'memories', 'make', 'led', 'joining', 'implemented', 'humans', 'hopes', 'hearts', 'furthermore', 'force', 'despite', 'confront', 'brave', 'begin', 'battlefield', 'attempts', 'amongst', 'affiliated']</t>
+          <t>['prestigious japanese bakery chain', 'unusually warm hands', 'unique national bread', 'internationally celebrated bread', 'kazuma azuma embarks', 'unparalleled bread', 'young age', 'talented bakers', 'newfound friends', 'mal rewrite', 'japan simply', 'ferment faster', 'experiences firsthand', 'create new', 'create japan', 'competitive world', 'begins working', 'azuma strives', 'azuma encounters', 'another level', 'allow dough', 'baking revolution', 'baking innovations', 'azuma', 'baking', 'written', 'wonders', 'thus', 'start', 'rivals', 'reputation', 'quest', 'pantasia', 'one', 'match', 'germany', 'france', 'england', 'discovering', 'countries', 'bring', 'breadmaking', 'blessed', 'along', 'able']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3485,16 +3336,14 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Apr 29, 2005 to Oct 28, 2005</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2004</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3504,17 +3353,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['TV Tokyo', 'Aniplex', 'd-rights', 'Tohokushinsha Film Corporation', 'Atelier Musa']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Gonzo</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Light novel</t>
+          <t>Manga</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -3522,23 +3371,23 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
+          <t>PG-13 - Teens 13 or older</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2966</v>
+        <v>819</v>
       </c>
       <c r="P20" t="n">
-        <v>1347</v>
+        <v>2218</v>
       </c>
       <c r="Q20" t="n">
-        <v>1376</v>
+        <v>928</v>
       </c>
       <c r="R20" t="n">
-        <v>82203</v>
+        <v>42462</v>
       </c>
       <c r="S20" t="n">
-        <v>192322</v>
+        <v>101995</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3549,26 +3398,23 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V20" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>7.91</v>
+        <v>7.49</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['Comedy', 'Gourmet']</t>
+          <t>['Action', 'Drama', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['prestigious japanese bakery chain', 'unusually warm hands', 'unique national bread', 'internationally celebrated bread', 'kazuma azuma embarks', 'unparalleled bread', 'young age', 'talented bakers', 'newfound friends', 'mal rewrite', 'japan simply', 'ferment faster', 'experiences firsthand', 'create new', 'create japan', 'competitive world', 'begins working', 'azuma strives', 'azuma encounters', 'another level', 'allow dough', 'baking revolution', 'baking innovations', 'azuma', 'baking', 'written', 'wonders', 'thus', 'start', 'rivals', 'reputation', 'quest', 'pantasia', 'one', 'match', 'germany', 'france', 'england', 'discovering', 'countries', 'bring', 'breadmaking', 'blessed', 'along', 'able']</t>
+          <t>['overzealous kadomatsu rescues one', 'sinking zero fighter', 'routine military exercises', 'may forever change', 'geneon entertainment usa', 'art aegis system', '1942 — date', 'commander kadomatsu', 'transported back', 'time turns', 'thus setting', 'modern battlecruiser', 'june 4th', 'japanese fleet', 'crucial tide', 'crippling blow', 'crew pledges', 'crucial battle', 'crew', 'battle', 'battle', 'wwii', 'victims', 'u', 'test', 'submarine', 'state', 'source', 'ship', 'sealed', 'scheduled', 'ripple', 'ready', 'past', 'occurred', 'newest', 'never', 'mirai', 'mirai', 'midway', 'kusaka', 'japan', 'instead', 'however', 'history', 'forced', 'flow', 'find', 'fight', 'fate', 'events', 'edited', 'dealt', 'chain', 'anything', 'alter']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3577,12 +3423,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>69</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Oct 12, 2004 to Mar 14, 2006</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2004</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3596,12 +3440,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['TV Tokyo', 'Aniplex', 'd-rights', 'Tohokushinsha Film Corporation', 'Atelier Musa']</t>
+          <t>['Marvelous Entertainment', 'Animax', 'Pony Canyon', 'TBS']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sunrise</t>
+          <t>Studio Deen</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3618,19 +3462,19 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>812</v>
+        <v>2045</v>
       </c>
       <c r="P21" t="n">
-        <v>2218</v>
+        <v>4810</v>
       </c>
       <c r="Q21" t="n">
-        <v>928</v>
+        <v>197</v>
       </c>
       <c r="R21" t="n">
-        <v>42461</v>
+        <v>8273</v>
       </c>
       <c r="S21" t="n">
-        <v>101961</v>
+        <v>24288</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3641,26 +3485,23 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V21" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>7.49</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Action', 'Drama', 'Sci-Fi']</t>
+          <t>['Action', 'Avant Garde', 'Award Winning', 'Drama', 'Sci-Fi', 'Suspense']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['overzealous kadomatsu rescues one', 'sinking zero fighter', 'routine military exercises', 'may forever change', 'geneon entertainment usa', 'art aegis system', '1942 — date', 'commander kadomatsu', 'transported back', 'time turns', 'thus setting', 'modern battlecruiser', 'june 4th', 'japanese fleet', 'crucial tide', 'crippling blow', 'crew pledges', 'crucial battle', 'crew', 'battle', 'battle', 'wwii', 'victims', 'u', 'test', 'submarine', 'state', 'source', 'ship', 'sealed', 'scheduled', 'ripple', 'ready', 'past', 'occurred', 'newest', 'never', 'mirai', 'mirai', 'midway', 'kusaka', 'japan', 'instead', 'however', 'history', 'forced', 'flow', 'find', 'fight', 'fate', 'events', 'edited', 'dealt', 'chain', 'anything', 'alter']</t>
+          <t>['monstrous celestial beings called angels invade tokyo', 'nerv operates giant humanoid robots dubbed', 'forever changed upon meeting 29', 'devastating angel attack forces shinji', 'deeply buried trauma caused', 'brutal psychological trauma brought', 'efficiently piloting evangelion unit', 'ranking nerv officer', 'spirited maternal kindness', 'protective barriers known', 'perpetual internal battle', 'mysterious organization led', 'human salvation rests', 'cataclysmic event known', 'absolute terror fields', 'angels despite utilizing', 'old misato katsuragi', 'art advanced weaponry', 'shinji defends tokyo', 'cold gendou ikari', 'shinji ikari', 'old son', 'advanced munitions', 'shinji undergoes', 'world faces', 'true motive', 'son back', 'second impact', 'new threat', 'new robot', 'never experienced', 'military tactics', 'mal rewrite', 'gendou reveals', 'emotional neglect', 'dark machinations', 'child capable', 'angelic threat', 'angels', 'fifteen years', 'nerv', 'tokyo', 'tokyo', '3 one', 'piloting', 'evangelion', 'shinji', 'shinji', 'gendou', 'despite', 'years', 'one', '3', '3', '3', 'year', 'year', 'written', 'unable', 'terrified', 'synchronizes', 'suffered', 'state', 'shows', 'returns', 'open', 'oblivious', 'mother', 'mankind', 'loss', 'life', 'inviting', 'hope', 'high', 'hands', 'hands', 'free', 'father', 'father', 'father', 'evangelions', 'defend', 'combat', 'biometrics', 'another', 'action', 'abandoned', '14', '01']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3671,10 +3512,8 @@
       <c r="F22" t="n">
         <v>26</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Oct 8, 2004 to Apr 1, 2005</t>
-        </is>
+      <c r="G22" t="n">
+        <v>1995</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3688,17 +3527,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Marvelous Entertainment', 'Animax', 'Pony Canyon', 'TBS']</t>
+          <t>['TV Tokyo', 'Kadokawa Shoten', 'Nihon Ad Systems', 'Audio Tanaka']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Studio Deen</t>
+          <t>Gainax, Tatsunoko Production</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Manga</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -3710,19 +3549,19 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2032</v>
+        <v>233</v>
       </c>
       <c r="P22" t="n">
-        <v>4808</v>
+        <v>45</v>
       </c>
       <c r="Q22" t="n">
-        <v>197</v>
+        <v>111705</v>
       </c>
       <c r="R22" t="n">
-        <v>8273</v>
+        <v>1148687</v>
       </c>
       <c r="S22" t="n">
-        <v>24286</v>
+        <v>1921298</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3733,46 +3572,37 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V22" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>8.359999999999999</v>
+        <v>7.48</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Action', 'Avant Garde', 'Award Winning', 'Drama', 'Sci-Fi', 'Suspense']</t>
+          <t>['Action', 'Drama', 'Sci-Fi', 'Suspense']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['monstrous celestial beings called angels invade tokyo', 'nerv operates giant humanoid robots dubbed', 'forever changed upon meeting 29', 'devastating angel attack forces shinji', 'deeply buried trauma caused', 'brutal psychological trauma brought', 'efficiently piloting evangelion unit', 'ranking nerv officer', 'spirited maternal kindness', 'protective barriers known', 'perpetual internal battle', 'mysterious organization led', 'human salvation rests', 'cataclysmic event known', 'absolute terror fields', 'angels despite utilizing', 'old misato katsuragi', 'art advanced weaponry', 'shinji defends tokyo', 'cold gendou ikari', 'shinji ikari', 'old son', 'advanced munitions', 'shinji undergoes', 'world faces', 'true motive', 'son back', 'second impact', 'new threat', 'new robot', 'never experienced', 'military tactics', 'mal rewrite', 'gendou reveals', 'emotional neglect', 'dark machinations', 'child capable', 'angelic threat', 'angels', 'fifteen years', 'nerv', 'tokyo', 'tokyo', '3 one', 'piloting', 'evangelion', 'shinji', 'shinji', 'gendou', 'despite', 'years', 'one', '3', '3', '3', 'year', 'year', 'written', 'unable', 'terrified', 'synchronizes', 'suffered', 'state', 'shows', 'returns', 'open', 'oblivious', 'mother', 'mankind', 'loss', 'life', 'inviting', 'hope', 'high', 'hands', 'hands', 'free', 'father', 'father', 'father', 'evangelions', 'defend', 'combat', 'biometrics', 'another', 'action', 'abandoned', '14', '01']</t>
+          <t>['angels — colossal malevolent entities', 'second impact befell mankind', 'young boy finds', 'shattered familial bonds', 'giant machine capable', 'catastrophic event known', 'father gendou ikari', 'third impact', 'gendou since', 'father wishes', 'beings known', 'year 2015', 'thrust headlong', 'teenager shinji', 'shinji presumes', 'passed since', 'mal rewrite', 'greatest threat', 'evangelion unit', 'could affect', 'humanity forever', 'angels', 'mankind', 'humanity', 'humanity', 'written', 'wiping', 'wave', 'wave', 'triggering', 'tokyo', 'time', 'struggle', 'separated', 'select', 'rest', 'repair', 'recovery', 'plan', 'pilot', 'mother', 'middle', 'learned', 'intention', 'instead', 'future', 'forced', 'fighting', 'discovers', 'decade', 'death', 'city', 'caught', 'called', 'brought', 'battle', '3', '01']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Oct 4, 1995 to Mar 27, 1996</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>fall</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -3780,12 +3610,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['TV Tokyo', 'Kadokawa Shoten', 'Nihon Ad Systems', 'Audio Tanaka']</t>
+          <t>['TV Tokyo', 'Toei Animation', 'Kadokawa Shoten', 'Movic', 'Sega', 'TV Tokyo Music', 'Audio Tanaka']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Gainax, Tatsunoko Production</t>
+          <t>Gainax, Production I.G, Tatsunoko Production</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3794,57 +3624,54 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>PG-13 - Teens 13 or older</t>
+          <t>R - 17+ (violence &amp; profanity)</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>231</v>
+        <v>2060</v>
       </c>
       <c r="P23" t="n">
-        <v>45</v>
+        <v>964</v>
       </c>
       <c r="Q23" t="n">
-        <v>111698</v>
+        <v>766</v>
       </c>
       <c r="R23" t="n">
-        <v>1148562</v>
+        <v>150590</v>
       </c>
       <c r="S23" t="n">
-        <v>1921058</v>
+        <v>271722</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>long</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>1995</v>
+          <t>short</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>7.48</v>
+        <v>8.56</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Action', 'Drama', 'Sci-Fi', 'Suspense']</t>
+          <t>['Action', 'Avant Garde', 'Drama', 'Sci-Fi', 'Suspense']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['angels — colossal malevolent entities', 'second impact befell mankind', 'young boy finds', 'shattered familial bonds', 'giant machine capable', 'catastrophic event known', 'father gendou ikari', 'third impact', 'gendou since', 'father wishes', 'beings known', 'year 2015', 'thrust headlong', 'teenager shinji', 'shinji presumes', 'passed since', 'mal rewrite', 'greatest threat', 'evangelion unit', 'could affect', 'humanity forever', 'angels', 'mankind', 'humanity', 'humanity', 'written', 'wiping', 'wave', 'wave', 'triggering', 'tokyo', 'time', 'struggle', 'separated', 'select', 'rest', 'repair', 'recovery', 'plan', 'pilot', 'mother', 'middle', 'learned', 'intention', 'instead', 'future', 'forced', 'fighting', 'discovers', 'decade', 'death', 'city', 'caught', 'called', 'brought', 'battle', '3', '01']</t>
+          <t>['asuka langley souryuu pilots evangelion unit', 'depressed shinji hides deep within nerv', 'humanoid robot evangelion unit', 'captain misato katsuragi hunts', 'ultimate plan first', 'son mentally unable', 'society crumbles around', 'left emotionally comatose', 'desperate last stand', 'evangelion unit', 'shadow organization seele', 'shinji ikari', 'nerv races', 'nerv headquarters', 'world resting', 'teenage boy', 'security personnel', 'one primordial', 'military forces', 'mal rewrite', 'lethal invasion', 'heaviest weaponry', 'gendou wishes', 'gendou ikari', 'forces cut', 'deceased wife', 'dear friend', 'battle rages', 'seele unleashes', 'seele desires', 'shinji', 'nerv', 'seele', 'seele', 'headquarters', 'yui', 'written', 'souls', 'see', 'scientists', 'revert', 'reunited', 'pilot', 'humanity', 'hands', 'godlike', 'fusing', 'fate', 'enact', 'death', 'create', '02', '01']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3855,10 +3682,8 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Mar 15, 1997</t>
-        </is>
+      <c r="G24" t="n">
+        <v>1997</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -3868,12 +3693,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['TV Tokyo', 'Toei Animation', 'Kadokawa Shoten', 'Movic', 'Sega', 'TV Tokyo Music', 'Audio Tanaka']</t>
+          <t>['TV Tokyo', 'Toei Animation', 'Kadokawa Shoten', 'Movic', 'Sega', 'TV Tokyo Music', 'King Records', 'Audio Tanaka']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Gainax, Production I.G, Tatsunoko Production</t>
+          <t>Gainax, Production I.G</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3882,69 +3707,72 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
+          <t>R+ - Mild Nudity</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2076</v>
+        <v>116</v>
       </c>
       <c r="P24" t="n">
-        <v>964</v>
+        <v>177</v>
       </c>
       <c r="Q24" t="n">
-        <v>766</v>
+        <v>30599</v>
       </c>
       <c r="R24" t="n">
-        <v>150581</v>
+        <v>657898</v>
       </c>
       <c r="S24" t="n">
-        <v>271715</v>
-      </c>
-      <c r="T24" t="inlineStr"/>
+        <v>985843</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V24" t="n">
-        <v>1997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>8.56</v>
+        <v>8.6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['Action', 'Avant Garde', 'Drama', 'Sci-Fi', 'Suspense']</t>
+          <t>['Action', 'Adventure', 'Drama', 'Fantasy', 'Horror']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['asuka langley souryuu pilots evangelion unit', 'depressed shinji hides deep within nerv', 'humanoid robot evangelion unit', 'captain misato katsuragi hunts', 'ultimate plan first', 'son mentally unable', 'society crumbles around', 'left emotionally comatose', 'desperate last stand', 'evangelion unit', 'shadow organization seele', 'shinji ikari', 'nerv races', 'nerv headquarters', 'world resting', 'teenage boy', 'security personnel', 'one primordial', 'military forces', 'mal rewrite', 'lethal invasion', 'heaviest weaponry', 'gendou wishes', 'gendou ikari', 'forces cut', 'deceased wife', 'dear friend', 'battle rages', 'seele unleashes', 'seele desires', 'shinji', 'nerv', 'seele', 'seele', 'headquarters', 'yui', 'written', 'souls', 'see', 'scientists', 'revert', 'reunited', 'pilot', 'humanity', 'hands', 'godlike', 'fusing', 'fate', 'enact', 'death', 'create', '02', '01']</t>
+          <t>['young traveling mercenary characterized', 'falcon dominate every battle', 'two duel yet', 'two days later', 'something menacing lurks', 'guts crushes many', 'three years', 'one group', 'one day', 'one blow', 'never stays', 'mal rewrite', 'long —', 'life forever', 'large groups', 'large greatsword', 'immense strength', 'fresh injuries', 'black swordsman', 'become one', 'accepts jobs', 'guts wakes', 'combat prowess', 'change guts', 'griffith defeats', 'confronts griffith', 'guts loses', 'loses', 'guts', 'guts', 'guts', 'guts', 'guts', 'guts', 'falcon', 'falcon', 'falcon', 'falcon', 'falcon', 'combat', 'griffith', 'griffith', 'griffith', 'griffith', 'written', 'time', 'time', 'threatening', 'takes', 'takes', 'taken', 'shadows', 'second', 'recover', 'partake', 'others', 'offer', 'money', 'members', 'match', 'man', 'leadership', 'leader', 'known', 'join', 'job', 'interest', 'inducted', 'incapacitated', 'founder', 'fight', 'enemies', 'encounters', 'duels', 'due', 'condition', 'completing', 'commanders', 'carries', 'camp', 'battlefield', 'band', 'band', 'band', 'band', 'band', 'band', 'ambushed']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Movie</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Jul 19, 1997</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -3952,21 +3780,21 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['TV Tokyo', 'Toei Animation', 'Kadokawa Shoten', 'Movic', 'Sega', 'TV Tokyo Music', 'King Records', 'Audio Tanaka']</t>
+          <t>['VAP', 'Hakusensha', 'Nippon Television Network']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Gainax, Production I.G</t>
+          <t>OLM</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Original</t>
+          <t>Manga</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -3974,69 +3802,60 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="P25" t="n">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="Q25" t="n">
-        <v>30594</v>
+        <v>29777</v>
       </c>
       <c r="R25" t="n">
-        <v>657824</v>
+        <v>384919</v>
       </c>
       <c r="S25" t="n">
-        <v>985713</v>
+        <v>716578</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>1997</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B26" t="n">
-        <v>8.6</v>
+        <v>8.27</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Drama', 'Fantasy', 'Horror']</t>
+          <t>['Action', 'Award Winning', 'Mystery', 'Sci-Fi', 'Suspense']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['young traveling mercenary characterized', 'falcon dominate every battle', 'two duel yet', 'two days later', 'something menacing lurks', 'guts crushes many', 'three years', 'one group', 'one day', 'one blow', 'never stays', 'mal rewrite', 'long —', 'life forever', 'large groups', 'large greatsword', 'immense strength', 'fresh injuries', 'black swordsman', 'become one', 'accepts jobs', 'guts wakes', 'combat prowess', 'change guts', 'griffith defeats', 'confronts griffith', 'guts loses', 'loses', 'guts', 'guts', 'guts', 'guts', 'guts', 'guts', 'falcon', 'falcon', 'falcon', 'falcon', 'falcon', 'combat', 'griffith', 'griffith', 'griffith', 'griffith', 'written', 'time', 'time', 'threatening', 'takes', 'takes', 'taken', 'shadows', 'second', 'recover', 'partake', 'others', 'offer', 'money', 'members', 'match', 'man', 'leadership', 'leader', 'known', 'join', 'job', 'interest', 'inducted', 'incapacitated', 'founder', 'fight', 'enemies', 'encounters', 'duels', 'due', 'condition', 'completing', 'commanders', 'carries', 'camp', 'battlefield', 'band', 'band', 'band', 'band', 'band', 'band', 'ambushed']</t>
+          <t>['parties — including section 6 — start', 'public security section 9', 'willed major motoko kusanagi', 'section 9 spearheads', 'various philosophical questions', 'technologically advanced metropolis', 'shift toward globalization', 'mysterious hacker known', 'extremely complicated nature', 'dangerous threats following', 'motoko soon realizes', 'almost entirely robotic', 'puppet master themself', 'puppet master', '"', 'puppet master', 'robotic parts', 'year 2029', 'victims stripped', 'subordinates follow', 'mal rewrite', 'like many', 'incredible power', 'great improvements', 'get involved', 'enigmatic criminal', 'combating corruption', 'niihama city', 'futuristic world', 'case involving', 'motoko', 'world', 'city', 'case', 'written', 'trail', 'trail', 'terrorism', 'strong', 'responsible', 'replace', 'provide', 'pondering', 'one', 'none', 'memories', 'meaning', 'limbs', 'life', 'leaves', 'interconnected', 'giving', 'forcing', 'ever', 'due', 'cybernetics', 'confront', 'citizens', 'body', 'become', 'answers', 'able']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Oct 8, 1997 to Apr 1, 1998</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>fall</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4044,12 +3863,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['VAP', 'Hakusensha', 'Nippon Television Network']</t>
+          <t>['Bandai Visual', 'Kodansha']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>OLM</t>
+          <t>Production I.G</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4058,7 +3877,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -4066,63 +3885,58 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="P26" t="n">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="Q26" t="n">
-        <v>29774</v>
+        <v>13625</v>
       </c>
       <c r="R26" t="n">
-        <v>384871</v>
+        <v>346709</v>
       </c>
       <c r="S26" t="n">
-        <v>716459</v>
+        <v>671007</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>long</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>1997</v>
+          <t>short</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="n">
-        <v>8.27</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['Action', 'Award Winning', 'Mystery', 'Sci-Fi', 'Suspense']</t>
+          <t>['Action', 'Drama', 'Romance']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['parties — including section 6 — start', 'public security section 9', 'willed major motoko kusanagi', 'section 9 spearheads', 'various philosophical questions', 'technologically advanced metropolis', 'shift toward globalization', 'mysterious hacker known', 'extremely complicated nature', 'dangerous threats following', 'motoko soon realizes', 'almost entirely robotic', 'puppet master themself', 'puppet master', '"', 'puppet master', 'robotic parts', 'year 2029', 'victims stripped', 'subordinates follow', 'mal rewrite', 'like many', 'incredible power', 'great improvements', 'get involved', 'enigmatic criminal', 'combating corruption', 'niihama city', 'futuristic world', 'case involving', 'motoko', 'world', 'city', 'case', 'written', 'trail', 'trail', 'terrorism', 'strong', 'responsible', 'replace', 'provide', 'pondering', 'one', 'none', 'memories', 'meaning', 'limbs', 'life', 'leaves', 'interconnected', 'giving', 'forcing', 'ever', 'due', 'cybernetics', 'confront', 'citizens', 'body', 'become', 'answers', 'able']</t>
+          <t>['meiji kenkaku romantan', 'live honest lives', 'hitokiri battousai long', 'young boy witnesses', 'would bear', 'savagery surpasses', 'rurouni kenshin', 'nation rests', 'mal rewrite', 'little hope', 'kenshin himura', 'hen details', 'full moon', 'young man', 'new name', 'boy', 'name', 'man', 'man', 'written', 'wish', 'tsuioku', 'swore', 'swordsman', 'softness', 'shinta', 'rescued', 'reputation', 'protect', 'origins', 'occupation', 'oath', 'murder', 'mankind', 'known', 'kill', 'justice', 'innocent', 'heart', 'heart', 'fear', 'fate', 'enslaved', 'earned', 'divided', 'destined', 'desire', 'death', 'corruption', 'christened', 'beneath', 'befit', 'become', 'bandits', 'assassin', 'actions', 'absolute']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Movie</t>
+          <t>OVA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Nov 18, 1995</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1999</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -4132,12 +3946,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Bandai Visual', 'Kodansha']</t>
+          <t>['Aniplex']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Production I.G</t>
+          <t>Studio Deen</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4146,27 +3960,27 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>R+ - Mild Nudity</t>
+          <t>R - 17+ (violence &amp; profanity)</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
-        <v>341</v>
+        <v>913</v>
       </c>
       <c r="Q27" t="n">
-        <v>13625</v>
+        <v>6370</v>
       </c>
       <c r="R27" t="n">
-        <v>346667</v>
+        <v>141740</v>
       </c>
       <c r="S27" t="n">
-        <v>670921</v>
+        <v>286236</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -4177,42 +3991,41 @@
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V27" t="n">
-        <v>1995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['Action', 'Drama', 'Romance']</t>
+          <t>['Action', 'Comedy', 'Romance']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['meiji kenkaku romantan', 'live honest lives', 'hitokiri battousai long', 'young boy witnesses', 'would bear', 'savagery surpasses', 'rurouni kenshin', 'nation rests', 'mal rewrite', 'little hope', 'kenshin himura', 'hen details', 'full moon', 'young man', 'new name', 'boy', 'name', 'man', 'man', 'written', 'wish', 'tsuioku', 'swore', 'swordsman', 'softness', 'shinta', 'rescued', 'reputation', 'protect', 'origins', 'occupation', 'oath', 'murder', 'mankind', 'known', 'kill', 'justice', 'innocent', 'heart', 'heart', 'fear', 'fate', 'enslaved', 'earned', 'divided', 'destined', 'desire', 'death', 'corruption', 'christened', 'beneath', 'befit', 'become', 'bandits', 'assassin', 'actions', 'absolute']</t>
+          <t>['meiji kenkaku romantan tells', 'former assassin temporarily ceases', 'ten peaceful years since', 'stumbles across kaoru kamiya', 'battousai still strikes terror', 'legendary assassin known', 'bakumatsu era lived', 'kaoru allows', 'final years', 'war veterans', 'wandering swordsman', 'vowing never', 'unmatched throughout', 'reformed killer', 'receiving help', 'present begin', 'one day', 'new ideals', 'mysteriously disappeared', 'merciless killer', 'mal rewrite', 'japanese revolution', 'impostor claiming', 'hitokiri battousai', 'cheerful attitude', 'bloodstained lifestyle', 'rurouni kenshin', 'kenshin himura', 'kenshin dedicates', 'kendo dojo', 'battousai', 'battousai', 'kenshin', 'kenshin', 'dojo', 'written', 'weak', 'uphold', 'unbeknownst', 'travels', 'threatened', 'strong', 'strives', 'story', 'stay', 'sins', 'saving', 'save', 'repent', 'protecting', 'peak', 'past', 'need', 'mention', 'living', 'kill', 'however', 'hearts', 'feared', 'enemies', 'emerge', 'effort', 'country', 'able', 'abandoned']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OVA</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Feb 20, 1999 to Sep 22, 1999</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1996</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>winter</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4220,12 +4033,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Aniplex']</t>
+          <t>['Aniplex', 'SME Visual Works', 'Fuji TV']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Studio Deen</t>
+          <t>Gallop, Studio Deen</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4234,27 +4047,27 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
+          <t>PG-13 - Teens 13 or older</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="P28" t="n">
-        <v>913</v>
+        <v>467</v>
       </c>
       <c r="Q28" t="n">
-        <v>6370</v>
+        <v>10255</v>
       </c>
       <c r="R28" t="n">
-        <v>141717</v>
+        <v>243471</v>
       </c>
       <c r="S28" t="n">
-        <v>286163</v>
+        <v>512712</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4263,48 +4076,39 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>1999</v>
+          <t>long</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
-        <v>8.279999999999999</v>
+        <v>7.55</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['Action', 'Comedy', 'Romance']</t>
+          <t>['Drama']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['meiji kenkaku romantan tells', 'former assassin temporarily ceases', 'ten peaceful years since', 'stumbles across kaoru kamiya', 'battousai still strikes terror', 'legendary assassin known', 'bakumatsu era lived', 'kaoru allows', 'final years', 'war veterans', 'wandering swordsman', 'vowing never', 'unmatched throughout', 'reformed killer', 'receiving help', 'present begin', 'one day', 'new ideals', 'mysteriously disappeared', 'merciless killer', 'mal rewrite', 'japanese revolution', 'impostor claiming', 'hitokiri battousai', 'cheerful attitude', 'bloodstained lifestyle', 'rurouni kenshin', 'kenshin himura', 'kenshin dedicates', 'kendo dojo', 'battousai', 'battousai', 'kenshin', 'kenshin', 'dojo', 'written', 'weak', 'uphold', 'unbeknownst', 'travels', 'threatened', 'strong', 'strives', 'story', 'stay', 'sins', 'saving', 'save', 'repent', 'protecting', 'peak', 'past', 'need', 'mention', 'living', 'kill', 'however', 'hearts', 'feared', 'enemies', 'emerge', 'effort', 'country', 'able', 'abandoned']</t>
+          <t>['tokugawa shogunate ended years ago', 'settle one final score', 'one man stands', 'shigure takimi watched', 'family get slashed', 'shigure discovers kenshin', 'kenshin himura', 'true identity', 'personal vendetta', 'hitokiri battousai', 'fight becomes', 'desperate rebels', 'way', 'war', 'sworn', 'source', 'prosperity', 'outcome', 'name', 'happy', 'friends', 'freedom', 'band', 'ann']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>94</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Jan 10, 1996 to Sep 8, 1998</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>winter</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4312,12 +4116,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Aniplex', 'SME Visual Works', 'Fuji TV']</t>
+          <t>['Fuji TV', 'Sony Music Entertainment']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Gallop, Studio Deen</t>
+          <t>Gallop</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4326,27 +4130,27 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>PG-13 - Teens 13 or older</t>
+          <t>R - 17+ (violence &amp; profanity)</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>309</v>
+        <v>1787</v>
       </c>
       <c r="P29" t="n">
-        <v>467</v>
+        <v>3220</v>
       </c>
       <c r="Q29" t="n">
-        <v>10254</v>
+        <v>96</v>
       </c>
       <c r="R29" t="n">
-        <v>243466</v>
+        <v>28324</v>
       </c>
       <c r="S29" t="n">
-        <v>512664</v>
+        <v>54310</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4355,28 +4159,25 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>1996</v>
+          <t>short</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="n">
-        <v>7.55</v>
+        <v>8.16</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['Drama']</t>
+          <t>['Action', 'Horror', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['tokugawa shogunate ended years ago', 'settle one final score', 'one man stands', 'shigure takimi watched', 'family get slashed', 'shigure discovers kenshin', 'kenshin himura', 'true identity', 'personal vendetta', 'hitokiri battousai', 'fight becomes', 'desperate rebels', 'way', 'war', 'sworn', 'source', 'prosperity', 'outcome', 'name', 'happy', 'friends', 'freedom', 'band', 'ann']</t>
+          <t>['best friend tetsuo shima', 'current government — stands', 'world war iii', 'psychic powers tears', 'shoutarou kaneda leads', 'tetsuo begins', 'government seeks', 'government institution', 'latest psychic', 'tokyo —', 'young boy', 'year 2019', 'riding large', 'restored version', 'mysterious abilities', 'misfits known', 'mal rewrite', 'gang violence', 'explosion caused', 'escaping confinement', 'destructive power', 'desperate attempt', 'custom motorcycles', 'constant conflict', 'clowns ."', 'capsules', '"', 'area rife', 'city known', 'shoutarou', 'leads', 'tokyo', 'tokyo', 'city', 'city', 'written', 'unleashing', 'terrorism', 'taken', 'streets', 'rivals', 'quarantine', 'prevent', 'prevent', 'place', 'order', 'one', 'never', 'neo', 'knees', 'japan', 'ignites', 'heard', 'group', 'fuse', 'finds', 'esper', 'encounter', 'develop', 'destruction', 'custody', 'could', 'caught', 'captured', 'bring', 'battles', 'accident', '1988']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4387,10 +4188,8 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Dec 20, 1997</t>
-        </is>
+      <c r="G30" t="n">
+        <v>1988</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -4400,12 +4199,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Fuji TV', 'Sony Music Entertainment']</t>
+          <t>['Mainichi Broadcasting System', 'Kodansha', 'Pioneer LDC', 'Bandai', 'TOHO', 'Sumitomo', 'Hakuhodo']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Gallop</t>
+          <t>Tokyo Movie Shinsha</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -4414,27 +4213,27 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
+          <t>R+ - Mild Nudity</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>1817</v>
+        <v>455</v>
       </c>
       <c r="P30" t="n">
-        <v>3220</v>
+        <v>208</v>
       </c>
       <c r="Q30" t="n">
-        <v>96</v>
+        <v>14408</v>
       </c>
       <c r="R30" t="n">
-        <v>28323</v>
+        <v>539696</v>
       </c>
       <c r="S30" t="n">
-        <v>54306</v>
+        <v>911525</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4445,42 +4244,41 @@
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V30" t="n">
-        <v>1997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="n">
-        <v>8.16</v>
+        <v>6.94</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['Action', 'Horror', 'Sci-Fi']</t>
+          <t>['Adventure', 'Fantasy', 'Mystery']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['best friend tetsuo shima', 'current government — stands', 'world war iii', 'psychic powers tears', 'shoutarou kaneda leads', 'tetsuo begins', 'government seeks', 'government institution', 'latest psychic', 'tokyo —', 'young boy', 'year 2019', 'riding large', 'restored version', 'mysterious abilities', 'misfits known', 'mal rewrite', 'gang violence', 'explosion caused', 'escaping confinement', 'destructive power', 'desperate attempt', 'custom motorcycles', 'constant conflict', 'clowns ."', 'capsules', '"', 'area rife', 'city known', 'shoutarou', 'leads', 'tokyo', 'tokyo', 'city', 'city', 'written', 'unleashing', 'terrorism', 'taken', 'streets', 'rivals', 'quarantine', 'prevent', 'prevent', 'place', 'order', 'one', 'never', 'neo', 'knees', 'japan', 'ignites', 'heard', 'group', 'fuse', 'finds', 'esper', 'encounter', 'develop', 'destruction', 'custody', 'could', 'caught', 'captured', 'bring', 'battles', 'accident', '1988']</t>
+          <t>['wanders around looking', 'crimson knights suspects', 'crimson knights', 'young wavemaster', 'tweaked character', 'stumbles upon', 'slight amnesia', 'seen accompanying', 'previously done', 'mmorpg called', 'mal rewrite', 'magical item', 'guardian', '"', 'became acquainted', 'meets along', 'tsukasa explores', 'knights', 'along', 'tsukasa', 'tsukasa', 'tsukasa', 'written', 'world', 'world', 'world', 'woke', 'way', 'wakes', 'unable', 'unable', 'takes', 'subaru', 'several', 'set', 'protection', 'promises', 'problem', 'players', 'players', 'log', 'log', 'leader', 'known', 'know', 'investigate', 'harm', 'hand', 'hacker', 'gets', 'get', 'game', 'form', 'form', 'cat', 'bottom', 'avoiding', 'attempt', 'answers', 'alias']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Movie</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Jul 16, 1988</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4488,87 +4286,82 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Mainichi Broadcasting System', 'Kodansha', 'Pioneer LDC', 'Bandai', 'TOHO', 'Sumitomo', 'Hakuhodo']</t>
+          <t>['Bandai Visual', 'Yomiko Advertising', 'Bandai', 'CyberConnect2']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Tokyo Movie Shinsha</t>
+          <t>Bee Train</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Manga</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>R+ - Mild Nudity</t>
+          <t>PG-13 - Teens 13 or older</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>455</v>
+        <v>4695</v>
       </c>
       <c r="P31" t="n">
-        <v>208</v>
+        <v>1370</v>
       </c>
       <c r="Q31" t="n">
-        <v>14408</v>
+        <v>1434</v>
       </c>
       <c r="R31" t="n">
-        <v>539696</v>
+        <v>86305</v>
       </c>
       <c r="S31" t="n">
-        <v>911525</v>
-      </c>
-      <c r="T31" t="inlineStr"/>
+        <v>189192</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>1988</v>
+          <t>long</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="n">
-        <v>6.94</v>
+        <v>7.28</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['Adventure', 'Fantasy', 'Mystery']</t>
+          <t>['Comedy', 'Romance', 'Supernatural']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['wanders around looking', 'crimson knights suspects', 'crimson knights', 'young wavemaster', 'tweaked character', 'stumbles upon', 'slight amnesia', 'seen accompanying', 'previously done', 'mmorpg called', 'mal rewrite', 'magical item', 'guardian', '"', 'became acquainted', 'meets along', 'tsukasa explores', 'knights', 'along', 'tsukasa', 'tsukasa', 'tsukasa', 'written', 'world', 'world', 'world', 'woke', 'way', 'wakes', 'unable', 'unable', 'takes', 'subaru', 'several', 'set', 'protection', 'promises', 'problem', 'players', 'players', 'log', 'log', 'leader', 'known', 'know', 'investigate', 'harm', 'hand', 'hacker', 'gets', 'get', 'game', 'form', 'form', 'cat', 'bottom', 'avoiding', 'attempt', 'answers', 'alias']</t>
+          <t>['college student keiichi morisato dials', 'beautiful goddess named belldandy appears', 'accidentally gets connected', 'goddess hotline', 'belldandy move', 'wrong number', 'soon afterwards', 'skuld move', 'sisters urd', 'old shrine', 'getting kicked', 'keiichi', 'belldandy', 'ordering', 'mirror', 'front', 'food', 'dormitory', 'dorm']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>OVA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>26</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Apr 4, 2002 to Sep 26, 2002</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4576,21 +4369,21 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Bandai Visual', 'Yomiko Advertising', 'Bandai', 'CyberConnect2']</t>
+          <t>['Bandai Visual', 'KSS', 'Pony Canyon', 'TBS', 'Kodansha', 'Half H.P Studio', 'Nichion']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bee Train</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Original</t>
+          <t>Manga</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -4598,40 +4391,37 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>4668</v>
+        <v>2955</v>
       </c>
       <c r="P32" t="n">
-        <v>1370</v>
+        <v>3151</v>
       </c>
       <c r="Q32" t="n">
-        <v>1433</v>
+        <v>260</v>
       </c>
       <c r="R32" t="n">
-        <v>86305</v>
+        <v>27834</v>
       </c>
       <c r="S32" t="n">
-        <v>189182</v>
+        <v>56599</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>long</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>2002</v>
+          <t>short</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="n">
-        <v>7.28</v>
+        <v>7.31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4640,23 +4430,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['college student keiichi morisato dials', 'beautiful goddess named belldandy appears', 'accidentally gets connected', 'goddess hotline', 'belldandy move', 'wrong number', 'soon afterwards', 'skuld move', 'sisters urd', 'old shrine', 'getting kicked', 'keiichi', 'belldandy', 'ordering', 'mirror', 'front', 'food', 'dormitory', 'dorm']</t>
+          <t>['two strangers could turn', 'goddess help hotline', 'wish granted via', 'unexpected romance', 'relationship begins', 'rather uncomfortable', 'one another', 'male dormitory', 'mal rewrite', 'gorgeous woman', 'goddess belldandy', 'find lodging', 'buddhist temple', 'keiichi morisato', 'wish', 'granted', 'belldandy', 'keiichi', 'keiichi', 'written', 'world', 'unfortunately', 'summons', 'suddenly', 'staying', 'stay', 'soon', 'living', 'kicked', 'jokes', 'humans', 'human', 'forever', 'first', 'causing', 'blossom', 'awkward', 'awaits', 'although', 'alone', 'accident']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OVA</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Feb 21, 1993 to May 17, 1994</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2005</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>winter</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4664,7 +4456,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Bandai Visual', 'KSS', 'Pony Canyon', 'TBS', 'Kodansha', 'Half H.P Studio', 'Nichion']</t>
+          <t>['Bandai Visual', 'TBS', 'Imagine']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4678,7 +4470,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -4686,69 +4478,60 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2934</v>
+        <v>2808</v>
       </c>
       <c r="P33" t="n">
-        <v>3149</v>
+        <v>1549</v>
       </c>
       <c r="Q33" t="n">
-        <v>260</v>
+        <v>1150</v>
       </c>
       <c r="R33" t="n">
-        <v>27833</v>
+        <v>79400</v>
       </c>
       <c r="S33" t="n">
-        <v>56600</v>
+        <v>165669</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>1993</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="n">
-        <v>7.31</v>
+        <v>6.24</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['Comedy', 'Romance', 'Supernatural']</t>
+          <t>['Action', 'Drama', 'Romance', 'Supernatural']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['two strangers could turn', 'goddess help hotline', 'wish granted via', 'unexpected romance', 'relationship begins', 'rather uncomfortable', 'one another', 'male dormitory', 'mal rewrite', 'gorgeous woman', 'goddess belldandy', 'find lodging', 'buddhist temple', 'keiichi morisato', 'wish', 'granted', 'belldandy', 'keiichi', 'keiichi', 'written', 'world', 'unfortunately', 'summons', 'suddenly', 'staying', 'stay', 'soon', 'living', 'kicked', 'jokes', 'humans', 'human', 'forever', 'first', 'causing', 'blossom', 'awkward', 'awaits', 'although', 'alone', 'accident']</t>
+          <t>['old high school student', 'without running afoul', 'younger sister', 'true destiny', 'strange times', 'mysterious beings', 'leader alexiel', 'hell threatens', 'eternal conflict', 'bullying seniors', 'setsuna struggles', 'setsuna mudo', 'demons claim', 'angels say', 'setsuna', 'demons', 'angels', 'year', 'war', 'trying', 'sees', 'sara', 'reincarnation', 'reignite', 'professing', 'prepared', 'month', 'love', 'life', 'led', 'know', 'keeping', 'identity', 'help', 'heaven', 'head', 'god', 'get', 'ambushed', '16']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>OVA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Jan 7, 2005 to Jul 8, 2005</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>winter</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4756,12 +4539,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Bandai Visual', 'TBS', 'Imagine']</t>
+          <t>['Bandai Visual', 'Lantis', 'Audio Tanaka']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>HAL Film Maker</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4770,73 +4553,72 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PG-13 - Teens 13 or older</t>
+          <t>R+ - Mild Nudity</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2828</v>
+        <v>8693</v>
       </c>
       <c r="P34" t="n">
-        <v>1549</v>
+        <v>3332</v>
       </c>
       <c r="Q34" t="n">
-        <v>1150</v>
+        <v>187</v>
       </c>
       <c r="R34" t="n">
-        <v>79397</v>
+        <v>27564</v>
       </c>
       <c r="S34" t="n">
-        <v>165653</v>
+        <v>51207</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>long</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>2005</v>
+          <t>short</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="n">
-        <v>6.24</v>
+        <v>7.26</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['Action', 'Drama', 'Romance', 'Supernatural']</t>
+          <t>['Award Winning', 'Comedy', 'Drama', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['old high school student', 'without running afoul', 'younger sister', 'true destiny', 'strange times', 'mysterious beings', 'leader alexiel', 'hell threatens', 'eternal conflict', 'bullying seniors', 'setsuna struggles', 'setsuna mudo', 'demons claim', 'angels say', 'setsuna', 'demons', 'angels', 'year', 'war', 'trying', 'sees', 'sara', 'reincarnation', 'reignite', 'professing', 'prepared', 'month', 'love', 'life', 'led', 'know', 'keeping', 'identity', 'help', 'heaven', 'head', 'god', 'get', 'ambushed', '16']</t>
+          <t>['battling game using electronic dolls called angels', 'misaki shows advanced skills', 'greatest angelic layer champions', 'enters angelic layer tournaments', 'old misaki suzuhara', 'meets new friends', 'angelic layer', 'gotten involved', 'year', 'newbie', 'nation', 'fight', 'even', '12']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OVA</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>May 25, 2000 to Aug 25, 2000</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -4844,12 +4626,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Bandai Visual', 'Lantis', 'Audio Tanaka']</t>
+          <t>['Dentsu', 'TV Tokyo Music']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>HAL Film Maker</t>
+          <t>Bones</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4858,57 +4640,54 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>R+ - Mild Nudity</t>
+          <t>PG-13 - Teens 13 or older</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>8677</v>
+        <v>3091</v>
       </c>
       <c r="P35" t="n">
-        <v>3332</v>
+        <v>3029</v>
       </c>
       <c r="Q35" t="n">
-        <v>187</v>
+        <v>319</v>
       </c>
       <c r="R35" t="n">
-        <v>27564</v>
+        <v>29705</v>
       </c>
       <c r="S35" t="n">
-        <v>51207</v>
+        <v>60992</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="n">
-        <v>7.26</v>
+        <v>7.1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['Award Winning', 'Comedy', 'Drama', 'Sci-Fi']</t>
+          <t>['Comedy', 'Drama', 'Romance']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['battling game using electronic dolls called angels', 'misaki shows advanced skills', 'greatest angelic layer champions', 'enters angelic layer tournaments', 'old misaki suzuhara', 'meets new friends', 'angelic layer', 'gotten involved', 'year', 'newbie', 'nation', 'fight', 'even', '12']</t>
+          <t>['kaoru immediately identified', 'bewildered girl dressed', 'two children', 'train station', 'lives alone', 'kaoru invited', 'kaoru hanabishi', 'hanabishi family', 'first place', 'empty lot', 'devastated girl', 'deepest part', 'college student', 'childhood friend', 'betrothed fiancee', 'aoi sakuraba', 'aoi sakuraba', 'also reminded', 'additional clues', 'kaoru', 'girl', 'way', 'way', 'volunteered', 'turned', 'turned', 'tokyo', 'surprising', 'supplied', 'revelation', 'photo', 'next', 'neighborhood', 'met', 'memory', 'marry', 'looking', 'left', 'knowing', 'kimono', 'happened', 'guide', 'front', 'destination', 'came', 'beautiful', 'asked', 'apartment', 'address']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4917,12 +4696,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>26</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Apr 1, 2001 to Sep 23, 2001</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2002</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4936,12 +4713,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Dentsu', 'TV Tokyo Music']</t>
+          <t>['Movic', 'Fuji TV', 'Pioneer LDC', 'Cosmic Ray']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bones</t>
+          <t>J.C.Staff</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4950,7 +4727,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -4958,19 +4735,19 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>3072</v>
+        <v>3951</v>
       </c>
       <c r="P36" t="n">
-        <v>3028</v>
+        <v>2057</v>
       </c>
       <c r="Q36" t="n">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="R36" t="n">
-        <v>29705</v>
+        <v>55031</v>
       </c>
       <c r="S36" t="n">
-        <v>60981</v>
+        <v>114589</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4981,46 +4758,37 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V36" t="n">
-        <v>2001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="n">
-        <v>7.1</v>
+        <v>7.05</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Comedy', 'Drama', 'Romance']</t>
+          <t>['Action', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['kaoru immediately identified', 'bewildered girl dressed', 'two children', 'train station', 'lives alone', 'kaoru invited', 'kaoru hanabishi', 'hanabishi family', 'first place', 'empty lot', 'devastated girl', 'deepest part', 'college student', 'childhood friend', 'betrothed fiancee', 'aoi sakuraba', 'aoi sakuraba', 'also reminded', 'additional clues', 'kaoru', 'girl', 'way', 'way', 'volunteered', 'turned', 'turned', 'tokyo', 'surprising', 'supplied', 'revelation', 'photo', 'next', 'neighborhood', 'met', 'memory', 'marry', 'looking', 'left', 'knowing', 'kimono', 'happened', 'guide', 'front', 'destination', 'came', 'beautiful', 'asked', 'apartment', 'address']</t>
+          <t>['seemingly perfect society comes', 'artificial humans ).', 'tensions lurk', 'global war', 'deunan knute', 'critical importance', 'humans', 'wars', 'utopia', 'turn', 'survivor', 'surface', 'source', 'populated', 'legacy', 'humanity', 'harmonious', 'growing', 'future', 'everything', 'city', 'chaos', 'carries', 'bioroids', 'ann']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Movie</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>24</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Apr 11, 2002 to Sep 26, 2002</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -5028,12 +4796,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Movic', 'Fuji TV', 'Pioneer LDC', 'Cosmic Ray']</t>
+          <t>['Mainichi Broadcasting System', 'TOHO', 'TYO Animations', 'TYO', 'Geneon Entertainment']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>J.C.Staff</t>
+          <t>Digital Frontier</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -5042,73 +4810,72 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PG-13 - Teens 13 or older</t>
+          <t>R - 17+ (violence &amp; profanity)</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>3939</v>
+        <v>4177</v>
       </c>
       <c r="P37" t="n">
-        <v>2057</v>
+        <v>2663</v>
       </c>
       <c r="Q37" t="n">
-        <v>472</v>
+        <v>186</v>
       </c>
       <c r="R37" t="n">
-        <v>55031</v>
+        <v>42394</v>
       </c>
       <c r="S37" t="n">
-        <v>114581</v>
+        <v>76339</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>long</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V37" t="n">
-        <v>2002</v>
+          <t>short</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>7.05</v>
+        <v>6.49</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['Action', 'Sci-Fi']</t>
+          <t>['Action', 'Adventure', 'Fantasy', 'Horror', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['seemingly perfect society comes', 'artificial humans ).', 'tensions lurk', 'global war', 'deunan knute', 'critical importance', 'humans', 'wars', 'utopia', 'turn', 'survivor', 'surface', 'source', 'populated', 'legacy', 'humanity', 'harmonious', 'growing', 'future', 'everything', 'city', 'chaos', 'carries', 'bioroids', 'ann']</t>
+          <t>['produce powerful monsters called chimera', 'advanced technology exists side', 'young female beast', 'strange futuristic world', 'story follows elk', 'world archaic', 'serious enemies', 'primitive attitudes', 'evil conspiracy', 'bounty hunter', 'also appear', 'side', 'elk', 'also', 'words', 'source', 'rescued', 'naturally', 'master', 'magic', 'long', 'human', 'got', 'gained', 'everything', 'bit', 'beasts', 'ann', 'able']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Movie</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Apr 17, 2004</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Finished Airing</t>
@@ -5116,21 +4883,21 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Mainichi Broadcasting System', 'TOHO', 'TYO Animations', 'TYO', 'Geneon Entertainment']</t>
+          <t>['Sony Pictures Entertainment', 'Aniplex', 'Sony Interactive Entertainment']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Digital Frontier</t>
+          <t>Bee Train</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Manga</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -5138,45 +4905,46 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>4208</v>
+        <v>7210</v>
       </c>
       <c r="P38" t="n">
-        <v>2663</v>
+        <v>5477</v>
       </c>
       <c r="Q38" t="n">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="R38" t="n">
-        <v>42394</v>
+        <v>6444</v>
       </c>
       <c r="S38" t="n">
-        <v>76338</v>
-      </c>
-      <c r="T38" t="inlineStr"/>
+        <v>17540</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="V38" t="n">
-        <v>2004</v>
+          <t>long</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="n">
-        <v>6.49</v>
+        <v>5.85</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Fantasy', 'Horror', 'Sci-Fi']</t>
+          <t>['Adventure', 'Fantasy', 'Sci-Fi']</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['produce powerful monsters called chimera', 'advanced technology exists side', 'young female beast', 'strange futuristic world', 'story follows elk', 'world archaic', 'serious enemies', 'primitive attitudes', 'evil conspiracy', 'bounty hunter', 'also appear', 'side', 'elk', 'also', 'words', 'source', 'rescued', 'naturally', 'master', 'magic', 'long', 'human', 'got', 'gained', 'everything', 'bit', 'beasts', 'ann', 'able']</t>
+          <t>['robot servants known', 'unknown ties', 'unique doll', 'tragic past', 'skilled fighter', 'mysterious past', 'dolls ."', 'doll breeder', 'mars see', 'attack layla', 'mars', 'layla', 'layla', 'world', 'world', 'world', 'trio', 'travels', 'time', 'threat', 'strange', 'speedy', 'revealed', 'replaced', 'nei', 'nei', 'future', 'founders', 'companions', 'colonized', 'children', 'bit']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5185,16 +4953,14 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Apr 5, 1999 to Oct 11, 1999</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2003</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5204,7 +4970,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Sony Pictures Entertainment', 'Aniplex', 'Sony Interactive Entertainment']</t>
+          <t>['Yomiko Advertising']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5214,31 +4980,31 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="M39" t="n">
+        <v>23</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>R - 17+ (violence &amp; profanity)</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>10791</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5347</v>
+      </c>
+      <c r="Q39" t="n">
         <v>22</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>R - 17+ (violence &amp; profanity)</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>7176</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5476</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>14</v>
-      </c>
       <c r="R39" t="n">
-        <v>6444</v>
+        <v>7310</v>
       </c>
       <c r="S39" t="n">
-        <v>17535</v>
+        <v>18711</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5247,11 +5013,8 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>1999</v>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -5279,10 +5042,8 @@
       <c r="F40" t="n">
         <v>26</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Oct 7, 2004 to Mar 31, 2005</t>
-        </is>
+      <c r="G40" t="n">
+        <v>2004</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -5318,19 +5079,19 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P40" t="n">
         <v>716</v>
       </c>
       <c r="Q40" t="n">
-        <v>8828</v>
+        <v>8827</v>
       </c>
       <c r="R40" t="n">
-        <v>146155</v>
+        <v>146166</v>
       </c>
       <c r="S40" t="n">
-        <v>359319</v>
+        <v>359363</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5341,9 +5102,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V40" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="41">
@@ -5371,10 +5129,8 @@
       <c r="F41" t="n">
         <v>26</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Oct 8, 1999 to Mar 31, 2000</t>
-        </is>
+      <c r="G41" t="n">
+        <v>1999</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -5410,7 +5166,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>4371</v>
+        <v>4391</v>
       </c>
       <c r="P41" t="n">
         <v>2484</v>
@@ -5419,10 +5175,10 @@
         <v>445</v>
       </c>
       <c r="R41" t="n">
-        <v>31555</v>
+        <v>31554</v>
       </c>
       <c r="S41" t="n">
-        <v>85637</v>
+        <v>85644</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5433,9 +5189,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V41" t="n">
-        <v>1999</v>
       </c>
     </row>
     <row r="42">
@@ -5463,10 +5216,8 @@
       <c r="F42" t="n">
         <v>26</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Apr 3, 2002 to Sep 25, 2002</t>
-        </is>
+      <c r="G42" t="n">
+        <v>2002</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -5502,7 +5253,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2442</v>
+        <v>2458</v>
       </c>
       <c r="P42" t="n">
         <v>484</v>
@@ -5511,10 +5262,10 @@
         <v>4174</v>
       </c>
       <c r="R42" t="n">
-        <v>260332</v>
+        <v>260340</v>
       </c>
       <c r="S42" t="n">
-        <v>499774</v>
+        <v>499813</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5525,9 +5276,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V42" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="43">
@@ -5555,10 +5303,8 @@
       <c r="F43" t="n">
         <v>24</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Nov 25, 2003 to Jun 10, 2004</t>
-        </is>
+      <c r="G43" t="n">
+        <v>2003</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -5594,19 +5340,19 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="P43" t="n">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="Q43" t="n">
         <v>1943</v>
       </c>
       <c r="R43" t="n">
-        <v>106074</v>
+        <v>106077</v>
       </c>
       <c r="S43" t="n">
-        <v>232508</v>
+        <v>232527</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5617,9 +5363,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V43" t="n">
-        <v>2003</v>
       </c>
     </row>
     <row r="44">
@@ -5647,10 +5390,8 @@
       <c r="F44" t="n">
         <v>26</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Apr 3, 2003 to Sep 25, 2003</t>
-        </is>
+      <c r="G44" t="n">
+        <v>2003</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -5689,7 +5430,7 @@
         <v>3643</v>
       </c>
       <c r="P44" t="n">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="Q44" t="n">
         <v>1281</v>
@@ -5698,7 +5439,7 @@
         <v>100497</v>
       </c>
       <c r="S44" t="n">
-        <v>188722</v>
+        <v>188739</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5709,9 +5450,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V44" t="n">
-        <v>2003</v>
       </c>
     </row>
     <row r="45">
@@ -5739,10 +5477,8 @@
       <c r="F45" t="n">
         <v>26</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Jul 5, 2003 to Dec 27, 2003</t>
-        </is>
+      <c r="G45" t="n">
+        <v>2003</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -5801,9 +5537,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V45" t="n">
-        <v>2003</v>
       </c>
     </row>
     <row r="46">
@@ -5831,10 +5564,8 @@
       <c r="F46" t="n">
         <v>12</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Jul 11, 2004 to Sep 26, 2004</t>
-        </is>
+      <c r="G46" t="n">
+        <v>2004</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5870,7 +5601,7 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>6894</v>
+        <v>6887</v>
       </c>
       <c r="P46" t="n">
         <v>1640</v>
@@ -5879,10 +5610,10 @@
         <v>360</v>
       </c>
       <c r="R46" t="n">
-        <v>81360</v>
+        <v>81363</v>
       </c>
       <c r="S46" t="n">
-        <v>153383</v>
+        <v>153401</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5893,9 +5624,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V46" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="47">
@@ -5923,10 +5651,8 @@
       <c r="F47" t="n">
         <v>12</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Oct 8, 2004 to Dec 24, 2004</t>
-        </is>
+      <c r="G47" t="n">
+        <v>2004</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -5974,7 +5700,7 @@
         <v>99948</v>
       </c>
       <c r="S47" t="n">
-        <v>212833</v>
+        <v>212851</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5985,9 +5711,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V47" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="48">
@@ -6015,10 +5738,8 @@
       <c r="F48" t="n">
         <v>12</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Oct 21, 2005 to Jan 27, 2006</t>
-        </is>
+      <c r="G48" t="n">
+        <v>2005</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -6066,7 +5787,7 @@
         <v>60527</v>
       </c>
       <c r="S48" t="n">
-        <v>108665</v>
+        <v>108669</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6077,9 +5798,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V48" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="49">
@@ -6107,10 +5825,8 @@
       <c r="F49" t="n">
         <v>26</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Apr 9, 2002 to Oct 1, 2002</t>
-        </is>
+      <c r="G49" t="n">
+        <v>2002</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -6146,19 +5862,19 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="P49" t="n">
         <v>638</v>
       </c>
       <c r="Q49" t="n">
-        <v>8544</v>
+        <v>8547</v>
       </c>
       <c r="R49" t="n">
-        <v>171946</v>
+        <v>171967</v>
       </c>
       <c r="S49" t="n">
-        <v>396685</v>
+        <v>396752</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6169,9 +5885,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V49" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="50">
@@ -6199,10 +5912,8 @@
       <c r="F50" t="n">
         <v>24</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Apr 13, 2005 to Sep 21, 2005</t>
-        </is>
+      <c r="G50" t="n">
+        <v>2005</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -6238,7 +5949,7 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>1872</v>
+        <v>1856</v>
       </c>
       <c r="P50" t="n">
         <v>1317</v>
@@ -6247,10 +5958,10 @@
         <v>1443</v>
       </c>
       <c r="R50" t="n">
-        <v>80284</v>
+        <v>80291</v>
       </c>
       <c r="S50" t="n">
-        <v>196970</v>
+        <v>196984</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6261,9 +5972,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V50" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="51">
@@ -6291,10 +5999,8 @@
       <c r="F51" t="n">
         <v>23</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Oct 7, 2005 to Mar 31, 2006</t>
-        </is>
+      <c r="G51" t="n">
+        <v>2005</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -6330,19 +6036,19 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>2833</v>
+        <v>2813</v>
       </c>
       <c r="P51" t="n">
         <v>943</v>
       </c>
       <c r="Q51" t="n">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="R51" t="n">
-        <v>131782</v>
+        <v>131780</v>
       </c>
       <c r="S51" t="n">
-        <v>277581</v>
+        <v>277596</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6353,9 +6059,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V51" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="52">
@@ -6383,10 +6086,8 @@
       <c r="F52" t="n">
         <v>25</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Oct 5, 2005 to Mar 29, 2006</t>
-        </is>
+      <c r="G52" t="n">
+        <v>2005</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -6422,7 +6123,7 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>8285</v>
+        <v>8302</v>
       </c>
       <c r="P52" t="n">
         <v>6418</v>
@@ -6445,9 +6146,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V52" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="53">
@@ -6475,10 +6173,8 @@
       <c r="F53" t="n">
         <v>24</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Jan 8, 2002 to Jun 18, 2002</t>
-        </is>
+      <c r="G53" t="n">
+        <v>2002</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -6514,7 +6210,7 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1641</v>
+        <v>1627</v>
       </c>
       <c r="P53" t="n">
         <v>466</v>
@@ -6523,10 +6219,10 @@
         <v>4418</v>
       </c>
       <c r="R53" t="n">
-        <v>247006</v>
+        <v>247023</v>
       </c>
       <c r="S53" t="n">
-        <v>514239</v>
+        <v>514273</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6537,9 +6233,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V53" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="54">
@@ -6567,10 +6260,8 @@
       <c r="F54" t="n">
         <v>12</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Aug 26, 2003 to Nov 18, 2003</t>
-        </is>
+      <c r="G54" t="n">
+        <v>2003</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -6606,7 +6297,7 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="P54" t="n">
         <v>874</v>
@@ -6615,10 +6306,10 @@
         <v>2983</v>
       </c>
       <c r="R54" t="n">
-        <v>178875</v>
+        <v>178880</v>
       </c>
       <c r="S54" t="n">
-        <v>304825</v>
+        <v>304856</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6629,9 +6320,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V54" t="n">
-        <v>2003</v>
       </c>
     </row>
     <row r="55">
@@ -6659,10 +6347,8 @@
       <c r="F55" t="n">
         <v>13</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Jul 14, 2005 to Oct 20, 2005</t>
-        </is>
+      <c r="G55" t="n">
+        <v>2005</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -6698,7 +6384,7 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="P55" t="n">
         <v>983</v>
@@ -6707,10 +6393,10 @@
         <v>1299</v>
       </c>
       <c r="R55" t="n">
-        <v>151477</v>
+        <v>151482</v>
       </c>
       <c r="S55" t="n">
-        <v>267994</v>
+        <v>268022</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6721,9 +6407,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V55" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="56">
@@ -6751,10 +6434,8 @@
       <c r="F56" t="n">
         <v>26</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Oct 30, 2004 to May 14, 2005</t>
-        </is>
+      <c r="G56" t="n">
+        <v>2004</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -6790,19 +6471,19 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="P56" t="n">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="Q56" t="n">
         <v>1490</v>
       </c>
       <c r="R56" t="n">
-        <v>53126</v>
+        <v>53125</v>
       </c>
       <c r="S56" t="n">
-        <v>103975</v>
+        <v>103982</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6813,9 +6494,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V56" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="57">
@@ -6843,10 +6521,8 @@
       <c r="F57" t="n">
         <v>25</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Jul 5, 2004 to Dec 27, 2004</t>
-        </is>
+      <c r="G57" t="n">
+        <v>2004</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -6882,7 +6558,7 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>3145</v>
+        <v>3160</v>
       </c>
       <c r="P57" t="n">
         <v>3340</v>
@@ -6891,10 +6567,10 @@
         <v>276</v>
       </c>
       <c r="R57" t="n">
-        <v>15822</v>
+        <v>15826</v>
       </c>
       <c r="S57" t="n">
-        <v>50983</v>
+        <v>50995</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6905,9 +6581,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V57" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="58">
@@ -6935,10 +6608,8 @@
       <c r="F58" t="n">
         <v>13</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Oct 3, 2004 to Dec 26, 2004</t>
-        </is>
+      <c r="G58" t="n">
+        <v>2004</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -6974,7 +6645,7 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2352</v>
+        <v>2369</v>
       </c>
       <c r="P58" t="n">
         <v>2139</v>
@@ -6983,10 +6654,10 @@
         <v>1063</v>
       </c>
       <c r="R58" t="n">
-        <v>43440</v>
+        <v>43442</v>
       </c>
       <c r="S58" t="n">
-        <v>107816</v>
+        <v>107825</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6997,9 +6668,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V58" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="59">
@@ -7027,10 +6695,8 @@
       <c r="F59" t="n">
         <v>13</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Oct 2, 2005 to Dec 25, 2005</t>
-        </is>
+      <c r="G59" t="n">
+        <v>2005</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -7066,7 +6732,7 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="P59" t="n">
         <v>2855</v>
@@ -7075,10 +6741,10 @@
         <v>1015</v>
       </c>
       <c r="R59" t="n">
-        <v>34964</v>
+        <v>34966</v>
       </c>
       <c r="S59" t="n">
-        <v>67972</v>
+        <v>67980</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7089,9 +6755,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V59" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="60">
@@ -7119,10 +6782,8 @@
       <c r="F60" t="n">
         <v>24</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Jul 8, 2005 to Jan 6, 2006</t>
-        </is>
+      <c r="G60" t="n">
+        <v>2005</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -7181,9 +6842,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V60" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="61">
@@ -7211,10 +6869,8 @@
       <c r="F61" t="n">
         <v>43</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Apr 7, 1979 to Jan 26, 1980</t>
-        </is>
+      <c r="G61" t="n">
+        <v>1979</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -7253,16 +6909,16 @@
         <v>1136</v>
       </c>
       <c r="P61" t="n">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="Q61" t="n">
         <v>2406</v>
       </c>
       <c r="R61" t="n">
-        <v>64277</v>
+        <v>64290</v>
       </c>
       <c r="S61" t="n">
-        <v>142502</v>
+        <v>142532</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7273,9 +6929,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V61" t="n">
-        <v>1979</v>
       </c>
     </row>
     <row r="62">
@@ -7303,10 +6956,8 @@
       <c r="F62" t="n">
         <v>12</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Jan 25, 1996 to Jul 25, 1999</t>
-        </is>
+      <c r="G62" t="n">
+        <v>1996</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -7361,9 +7012,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V62" t="n">
-        <v>1996</v>
       </c>
     </row>
     <row r="63">
@@ -7391,10 +7039,8 @@
       <c r="F63" t="n">
         <v>6</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Mar 25, 1989 to Aug 25, 1989</t>
-        </is>
+      <c r="G63" t="n">
+        <v>1989</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -7426,19 +7072,19 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="P63" t="n">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="Q63" t="n">
         <v>1119</v>
       </c>
       <c r="R63" t="n">
-        <v>36366</v>
+        <v>36376</v>
       </c>
       <c r="S63" t="n">
-        <v>65926</v>
+        <v>65950</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7449,9 +7095,6 @@
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V63" t="n">
-        <v>1989</v>
       </c>
     </row>
     <row r="64">
@@ -7479,10 +7122,8 @@
       <c r="F64" t="n">
         <v>1</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Aug 1, 1998</t>
-        </is>
+      <c r="G64" t="n">
+        <v>1998</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -7514,7 +7155,7 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="P64" t="n">
         <v>5894</v>
@@ -7537,9 +7178,6 @@
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V64" t="n">
-        <v>1998</v>
       </c>
     </row>
     <row r="65">
@@ -7567,10 +7205,8 @@
       <c r="F65" t="n">
         <v>13</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>May 23, 1991 to Sep 24, 1992</t>
-        </is>
+      <c r="G65" t="n">
+        <v>1991</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -7625,9 +7261,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V65" t="n">
-        <v>1991</v>
       </c>
     </row>
     <row r="66">
@@ -7655,10 +7288,8 @@
       <c r="F66" t="n">
         <v>50</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Mar 2, 1985 to Feb 22, 1986</t>
-        </is>
+      <c r="G66" t="n">
+        <v>1985</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -7694,19 +7325,19 @@
         </is>
       </c>
       <c r="O66" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P66" t="n">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="Q66" t="n">
         <v>2402</v>
       </c>
       <c r="R66" t="n">
-        <v>41739</v>
+        <v>41751</v>
       </c>
       <c r="S66" t="n">
-        <v>81736</v>
+        <v>81753</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7717,9 +7348,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V66" t="n">
-        <v>1985</v>
       </c>
     </row>
     <row r="67">
@@ -7747,10 +7375,8 @@
       <c r="F67" t="n">
         <v>47</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Mar 1, 1986 to Jan 31, 1987</t>
-        </is>
+      <c r="G67" t="n">
+        <v>1986</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -7786,7 +7412,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>6209</v>
+        <v>6211</v>
       </c>
       <c r="P67" t="n">
         <v>3469</v>
@@ -7795,10 +7421,10 @@
         <v>189</v>
       </c>
       <c r="R67" t="n">
-        <v>23776</v>
+        <v>23782</v>
       </c>
       <c r="S67" t="n">
-        <v>47401</v>
+        <v>47407</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -7809,9 +7435,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V67" t="n">
-        <v>1986</v>
       </c>
     </row>
     <row r="68">
@@ -7839,10 +7462,8 @@
       <c r="F68" t="n">
         <v>1</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Mar 12, 1988</t>
-        </is>
+      <c r="G68" t="n">
+        <v>1988</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -7874,28 +7495,29 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>1353</v>
+        <v>1364</v>
       </c>
       <c r="P68" t="n">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="Q68" t="n">
         <v>527</v>
       </c>
       <c r="R68" t="n">
-        <v>32463</v>
+        <v>32467</v>
       </c>
       <c r="S68" t="n">
-        <v>54651</v>
-      </c>
-      <c r="T68" t="inlineStr"/>
+        <v>54656</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
       <c r="U68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V68" t="n">
-        <v>1988</v>
       </c>
     </row>
     <row r="69">
@@ -7923,10 +7545,8 @@
       <c r="F69" t="n">
         <v>1</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Mar 16, 1991</t>
-        </is>
+      <c r="G69" t="n">
+        <v>1991</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -7972,14 +7592,15 @@
       <c r="S69" t="n">
         <v>35432</v>
       </c>
-      <c r="T69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
       <c r="U69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V69" t="n">
-        <v>1991</v>
       </c>
     </row>
     <row r="70">
@@ -8007,10 +7628,8 @@
       <c r="F70" t="n">
         <v>51</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Apr 2, 1993 to Mar 25, 1994</t>
-        </is>
+      <c r="G70" t="n">
+        <v>1993</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -8046,7 +7665,7 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="P70" t="n">
         <v>4352</v>
@@ -8055,10 +7674,10 @@
         <v>152</v>
       </c>
       <c r="R70" t="n">
-        <v>12176</v>
+        <v>12178</v>
       </c>
       <c r="S70" t="n">
-        <v>30310</v>
+        <v>30315</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8069,9 +7688,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V70" t="n">
-        <v>1993</v>
       </c>
     </row>
     <row r="71">
@@ -8099,10 +7715,8 @@
       <c r="F71" t="n">
         <v>49</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Apr 7, 1995 to Mar 29, 1996</t>
-        </is>
+      <c r="G71" t="n">
+        <v>1995</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -8161,9 +7775,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V71" t="n">
-        <v>1995</v>
       </c>
     </row>
     <row r="72">
@@ -8191,10 +7802,8 @@
       <c r="F72" t="n">
         <v>3</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Jan 25, 1997 to Jul 25, 1997</t>
-        </is>
+      <c r="G72" t="n">
+        <v>1997</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -8226,19 +7835,19 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="P72" t="n">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="Q72" t="n">
         <v>182</v>
       </c>
       <c r="R72" t="n">
-        <v>28569</v>
+        <v>28571</v>
       </c>
       <c r="S72" t="n">
-        <v>50226</v>
+        <v>50228</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -8249,9 +7858,6 @@
         <is>
           <t>short</t>
         </is>
-      </c>
-      <c r="V72" t="n">
-        <v>1997</v>
       </c>
     </row>
     <row r="73">
@@ -8279,10 +7885,8 @@
       <c r="F73" t="n">
         <v>39</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Apr 5, 1996 to Dec 28, 1996</t>
-        </is>
+      <c r="G73" t="n">
+        <v>1996</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -8318,19 +7922,19 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>2692</v>
+        <v>2703</v>
       </c>
       <c r="P73" t="n">
-        <v>3883</v>
+        <v>3885</v>
       </c>
       <c r="Q73" t="n">
         <v>230</v>
       </c>
       <c r="R73" t="n">
-        <v>17088</v>
+        <v>17091</v>
       </c>
       <c r="S73" t="n">
-        <v>38695</v>
+        <v>38696</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8341,9 +7945,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V73" t="n">
-        <v>1996</v>
       </c>
     </row>
     <row r="74">
@@ -8371,10 +7972,8 @@
       <c r="F74" t="n">
         <v>50</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Oct 5, 2002 to Sep 27, 2003</t>
-        </is>
+      <c r="G74" t="n">
+        <v>2002</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -8410,7 +8009,7 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P74" t="n">
         <v>1430</v>
@@ -8419,10 +8018,10 @@
         <v>3677</v>
       </c>
       <c r="R74" t="n">
-        <v>99465</v>
+        <v>99473</v>
       </c>
       <c r="S74" t="n">
-        <v>178999</v>
+        <v>179014</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8433,9 +8032,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V74" t="n">
-        <v>2002</v>
       </c>
     </row>
     <row r="75">
@@ -8463,10 +8059,8 @@
       <c r="F75" t="n">
         <v>50</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Oct 9, 2004 to Oct 1, 2005</t>
-        </is>
+      <c r="G75" t="n">
+        <v>2004</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -8511,10 +8105,10 @@
         <v>1136</v>
       </c>
       <c r="R75" t="n">
-        <v>67932</v>
+        <v>67937</v>
       </c>
       <c r="S75" t="n">
-        <v>113495</v>
+        <v>113509</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8525,9 +8119,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V75" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="76">
@@ -8555,10 +8146,8 @@
       <c r="F76" t="n">
         <v>50</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Apr 9, 1999 to Apr 14, 2000</t>
-        </is>
+      <c r="G76" t="n">
+        <v>1999</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -8594,7 +8183,7 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="P76" t="n">
         <v>3277</v>
@@ -8603,10 +8192,10 @@
         <v>1133</v>
       </c>
       <c r="R76" t="n">
-        <v>18560</v>
+        <v>18564</v>
       </c>
       <c r="S76" t="n">
-        <v>52407</v>
+        <v>52430</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -8617,9 +8206,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V76" t="n">
-        <v>1999</v>
       </c>
     </row>
     <row r="77">
@@ -8647,10 +8233,8 @@
       <c r="F77" t="n">
         <v>49</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Apr 1, 1994 to Mar 31, 1995</t>
-        </is>
+      <c r="G77" t="n">
+        <v>1994</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -8686,19 +8270,19 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="P77" t="n">
         <v>2749</v>
       </c>
       <c r="Q77" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="R77" t="n">
-        <v>39062</v>
+        <v>39067</v>
       </c>
       <c r="S77" t="n">
-        <v>72867</v>
+        <v>72879</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -8709,9 +8293,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V77" t="n">
-        <v>1994</v>
       </c>
     </row>
     <row r="78">
@@ -8739,10 +8320,8 @@
       <c r="F78" t="n">
         <v>26</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Apr 8, 2003 to Sep 30, 2003</t>
-        </is>
+      <c r="G78" t="n">
+        <v>2003</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -8778,7 +8357,7 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="P78" t="n">
         <v>1419</v>
@@ -8787,10 +8366,10 @@
         <v>1891</v>
       </c>
       <c r="R78" t="n">
-        <v>72790</v>
+        <v>72794</v>
       </c>
       <c r="S78" t="n">
-        <v>181146</v>
+        <v>181163</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -8801,9 +8380,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V78" t="n">
-        <v>2003</v>
       </c>
     </row>
     <row r="79">
@@ -8831,10 +8407,8 @@
       <c r="F79" t="n">
         <v>26</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Oct 1, 2004 to Apr 1, 2005</t>
-        </is>
+      <c r="G79" t="n">
+        <v>2004</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -8870,19 +8444,19 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="P79" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="Q79" t="n">
         <v>1142</v>
       </c>
       <c r="R79" t="n">
-        <v>52929</v>
+        <v>52930</v>
       </c>
       <c r="S79" t="n">
-        <v>119146</v>
+        <v>119163</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -8893,9 +8467,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V79" t="n">
-        <v>2004</v>
       </c>
     </row>
     <row r="80">
@@ -8923,10 +8494,8 @@
       <c r="F80" t="n">
         <v>26</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Oct 7, 2005 to Mar 31, 2006</t>
-        </is>
+      <c r="G80" t="n">
+        <v>2005</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -8962,7 +8531,7 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>3033</v>
+        <v>3017</v>
       </c>
       <c r="P80" t="n">
         <v>3250</v>
@@ -8971,10 +8540,10 @@
         <v>312</v>
       </c>
       <c r="R80" t="n">
-        <v>26020</v>
+        <v>26022</v>
       </c>
       <c r="S80" t="n">
-        <v>53126</v>
+        <v>53129</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -8985,9 +8554,6 @@
         <is>
           <t>long</t>
         </is>
-      </c>
-      <c r="V80" t="n">
-        <v>2005</v>
       </c>
     </row>
     <row r="81">
@@ -9015,10 +8581,8 @@
       <c r="F81" t="n">
         <v>13</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Apr 4, 2001 to Jun 27, 2001</t>
-        </is>
+      <c r="G81" t="n">
+        <v>2001</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -9054,7 +8618,7 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>3699</v>
+        <v>3654</v>
       </c>
       <c r="P81" t="n">
         <v>2884</v>
@@ -9063,10 +8627,10 @@
         <v>449</v>
       </c>
       <c r="R81" t="n">
-        <v>29831</v>
+        <v>29830</v>
       </c>
       <c r="S81" t="n">
-        <v>66914</v>
+        <v>66919</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9077,9 +8641,6 @@
         <is>
           <t>medium</t>
         </is>
-      </c>
-      <c r="V81" t="n">
-        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>303.3</v>
+        <v>303.6</v>
       </c>
       <c r="D9" t="n">
         <v>5.95</v>
@@ -826,7 +826,7 @@
         <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>18197</v>
+        <v>18213</v>
       </c>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -1467,16 +1467,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="D25" t="n">
         <v>7.57</v>
       </c>
       <c r="E25" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G25" t="n">
         <v>28</v>
@@ -1485,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="I25" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J25" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1813,19 +1813,19 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" t="n">
         <v>42</v>
       </c>
       <c r="Q2" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="R2" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="S2" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -1896,19 +1896,19 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P3" t="n">
         <v>639</v>
       </c>
       <c r="Q3" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="R3" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="S3" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1983,19 +1983,19 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P4" t="n">
         <v>261</v>
       </c>
       <c r="Q4" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="R4" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="S4" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="P5" t="n">
         <v>1942</v>
       </c>
       <c r="Q5" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R5" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="S5" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>4726</v>
+        <v>4753</v>
       </c>
       <c r="P6" t="n">
-        <v>5638</v>
+        <v>5642</v>
       </c>
       <c r="Q6" t="n">
         <v>16</v>
       </c>
       <c r="R6" t="n">
-        <v>6953</v>
+        <v>6954</v>
       </c>
       <c r="S6" t="n">
-        <v>16260</v>
+        <v>16262</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="P7" t="n">
         <v>1361</v>
@@ -2253,10 +2253,10 @@
         <v>2067</v>
       </c>
       <c r="R7" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="S7" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="P8" t="n">
         <v>944</v>
@@ -2340,10 +2340,10 @@
         <v>4172</v>
       </c>
       <c r="R8" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="S8" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -2418,19 +2418,19 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="P9" t="n">
-        <v>4667</v>
+        <v>4671</v>
       </c>
       <c r="Q9" t="n">
         <v>244</v>
       </c>
       <c r="R9" t="n">
-        <v>13919</v>
+        <v>13923</v>
       </c>
       <c r="S9" t="n">
-        <v>26125</v>
+        <v>26156</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2505,19 +2505,19 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="P10" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="Q10" t="n">
         <v>1388</v>
       </c>
       <c r="R10" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="S10" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         <v>122</v>
       </c>
       <c r="Q11" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="R11" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="S11" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2679,19 +2679,19 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P12" t="n">
         <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="R12" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="S12" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" t="n">
         <v>17</v>
       </c>
       <c r="Q13" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="R13" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="S13" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="P14" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="Q14" t="n">
         <v>3046</v>
       </c>
       <c r="R14" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="S14" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2943,16 +2943,16 @@
         <v>8021</v>
       </c>
       <c r="P15" t="n">
-        <v>8769</v>
+        <v>8775</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="S15" t="n">
-        <v>5423</v>
+        <v>5422</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -3027,19 +3027,19 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="P16" t="n">
         <v>772</v>
       </c>
       <c r="Q16" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="R16" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="S16" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3114,19 +3114,19 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="P17" t="n">
         <v>1695</v>
       </c>
       <c r="Q17" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R17" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="S17" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="P18" t="n">
         <v>975</v>
@@ -3210,10 +3210,10 @@
         <v>5351</v>
       </c>
       <c r="R18" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="S18" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -3288,19 +3288,19 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="P19" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="Q19" t="n">
         <v>1379</v>
       </c>
       <c r="R19" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="S19" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3375,19 +3375,19 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="P20" t="n">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="Q20" t="n">
         <v>928</v>
       </c>
       <c r="R20" t="n">
-        <v>42462</v>
+        <v>42472</v>
       </c>
       <c r="S20" t="n">
-        <v>101995</v>
+        <v>102085</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3462,19 +3462,19 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="P21" t="n">
         <v>4810</v>
       </c>
       <c r="Q21" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R21" t="n">
-        <v>8273</v>
+        <v>8279</v>
       </c>
       <c r="S21" t="n">
-        <v>24288</v>
+        <v>24301</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3549,19 +3549,19 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P22" t="n">
         <v>45</v>
       </c>
       <c r="Q22" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="R22" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="S22" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="P23" t="n">
         <v>964</v>
@@ -3641,10 +3641,10 @@
         <v>766</v>
       </c>
       <c r="R23" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="S23" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3715,19 +3715,19 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P24" t="n">
         <v>177</v>
       </c>
       <c r="Q24" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="R24" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="S24" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3808,13 +3808,13 @@
         <v>302</v>
       </c>
       <c r="Q25" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="R25" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="S25" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3891,13 +3891,13 @@
         <v>341</v>
       </c>
       <c r="Q26" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="R26" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="S26" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3968,19 +3968,19 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>913</v>
       </c>
       <c r="Q27" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="R27" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="S27" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P28" t="n">
         <v>467</v>
@@ -4064,10 +4064,10 @@
         <v>10255</v>
       </c>
       <c r="R28" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="S28" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4138,19 +4138,19 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="P29" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="Q29" t="n">
         <v>96</v>
       </c>
       <c r="R29" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="S29" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4227,13 +4227,13 @@
         <v>208</v>
       </c>
       <c r="Q30" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="R30" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="S30" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4308,19 +4308,19 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="P31" t="n">
         <v>1370</v>
       </c>
       <c r="Q31" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="R31" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="S31" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4391,19 +4391,19 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="P32" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="Q32" t="n">
         <v>260</v>
       </c>
       <c r="R32" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="S32" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4478,19 +4478,19 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2808</v>
+        <v>2829</v>
       </c>
       <c r="P33" t="n">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="Q33" t="n">
         <v>1150</v>
       </c>
       <c r="R33" t="n">
-        <v>79400</v>
+        <v>79411</v>
       </c>
       <c r="S33" t="n">
-        <v>165669</v>
+        <v>165734</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4561,19 +4561,19 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="P34" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="Q34" t="n">
         <v>187</v>
       </c>
       <c r="R34" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="S34" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4648,19 +4648,19 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="P35" t="n">
         <v>3029</v>
       </c>
       <c r="Q35" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R35" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="S35" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4735,19 +4735,19 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="P36" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="Q36" t="n">
         <v>472</v>
       </c>
       <c r="R36" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="S36" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4818,19 +4818,19 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="P37" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="Q37" t="n">
         <v>186</v>
       </c>
       <c r="R37" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="S37" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>7210</v>
+        <v>7292</v>
       </c>
       <c r="P38" t="n">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="Q38" t="n">
         <v>14</v>
       </c>
       <c r="R38" t="n">
-        <v>6444</v>
+        <v>6447</v>
       </c>
       <c r="S38" t="n">
-        <v>17540</v>
+        <v>17554</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4992,19 +4992,19 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>10791</v>
+        <v>10810</v>
       </c>
       <c r="P39" t="n">
-        <v>5347</v>
+        <v>5349</v>
       </c>
       <c r="Q39" t="n">
         <v>22</v>
       </c>
       <c r="R39" t="n">
-        <v>7310</v>
+        <v>7313</v>
       </c>
       <c r="S39" t="n">
-        <v>18711</v>
+        <v>18718</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5079,19 +5079,19 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P40" t="n">
         <v>716</v>
       </c>
       <c r="Q40" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="R40" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="S40" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5166,19 +5166,19 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>4391</v>
+        <v>4371</v>
       </c>
       <c r="P41" t="n">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="Q41" t="n">
         <v>445</v>
       </c>
       <c r="R41" t="n">
-        <v>31554</v>
+        <v>31566</v>
       </c>
       <c r="S41" t="n">
-        <v>85644</v>
+        <v>85700</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="P42" t="n">
         <v>484</v>
@@ -5262,10 +5262,10 @@
         <v>4174</v>
       </c>
       <c r="R42" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="S42" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5340,19 +5340,19 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="P43" t="n">
         <v>1136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="R43" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="S43" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5427,19 +5427,19 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="P44" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="Q44" t="n">
         <v>1281</v>
       </c>
       <c r="R44" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="S44" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5514,19 +5514,19 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="P45" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="Q45" t="n">
         <v>199</v>
       </c>
       <c r="R45" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="S45" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5601,19 +5601,19 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="P46" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="Q46" t="n">
         <v>360</v>
       </c>
       <c r="R46" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="S46" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="P47" t="n">
         <v>1229</v>
       </c>
       <c r="Q47" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="R47" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="S47" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5775,19 +5775,19 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="P48" t="n">
         <v>2128</v>
       </c>
       <c r="Q48" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R48" t="n">
-        <v>60527</v>
+        <v>60538</v>
       </c>
       <c r="S48" t="n">
-        <v>108669</v>
+        <v>108707</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5862,19 +5862,19 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="P49" t="n">
         <v>638</v>
       </c>
       <c r="Q49" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="R49" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="S49" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5949,19 +5949,19 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="P50" t="n">
         <v>1317</v>
       </c>
       <c r="Q50" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="R50" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="S50" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6036,19 +6036,19 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="P51" t="n">
         <v>943</v>
       </c>
       <c r="Q51" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="R51" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="S51" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>8302</v>
+        <v>8286</v>
       </c>
       <c r="P52" t="n">
-        <v>6418</v>
+        <v>6424</v>
       </c>
       <c r="Q52" t="n">
         <v>14</v>
       </c>
       <c r="R52" t="n">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="S52" t="n">
-        <v>11592</v>
+        <v>11597</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6210,19 +6210,19 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="P53" t="n">
         <v>466</v>
       </c>
       <c r="Q53" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="R53" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="S53" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="P54" t="n">
         <v>874</v>
@@ -6306,10 +6306,10 @@
         <v>2983</v>
       </c>
       <c r="R54" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="S54" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6384,19 +6384,19 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="P55" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Q55" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="R55" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="S55" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6471,19 +6471,19 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>1475</v>
+        <v>1482</v>
       </c>
       <c r="P56" t="n">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="Q56" t="n">
         <v>1490</v>
       </c>
       <c r="R56" t="n">
-        <v>53125</v>
+        <v>53137</v>
       </c>
       <c r="S56" t="n">
-        <v>103982</v>
+        <v>104025</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6558,19 +6558,19 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>3160</v>
+        <v>3147</v>
       </c>
       <c r="P57" t="n">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="Q57" t="n">
         <v>276</v>
       </c>
       <c r="R57" t="n">
-        <v>15826</v>
+        <v>15829</v>
       </c>
       <c r="S57" t="n">
-        <v>50995</v>
+        <v>51050</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6645,19 +6645,19 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="P58" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="Q58" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="R58" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="S58" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6732,19 +6732,19 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="P59" t="n">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="Q59" t="n">
         <v>1015</v>
       </c>
       <c r="R59" t="n">
-        <v>34966</v>
+        <v>34977</v>
       </c>
       <c r="S59" t="n">
-        <v>67980</v>
+        <v>68011</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="P60" t="n">
         <v>912</v>
@@ -6828,10 +6828,10 @@
         <v>1465</v>
       </c>
       <c r="R60" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="S60" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6906,19 +6906,19 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="P61" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="Q61" t="n">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="R61" t="n">
-        <v>64290</v>
+        <v>64341</v>
       </c>
       <c r="S61" t="n">
-        <v>142532</v>
+        <v>142699</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6992,16 +6992,16 @@
         <v>678</v>
       </c>
       <c r="P62" t="n">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="Q62" t="n">
         <v>1169</v>
       </c>
       <c r="R62" t="n">
-        <v>49276</v>
+        <v>49316</v>
       </c>
       <c r="S62" t="n">
-        <v>89721</v>
+        <v>89790</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7072,19 +7072,19 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="P63" t="n">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="Q63" t="n">
         <v>1119</v>
       </c>
       <c r="R63" t="n">
-        <v>36376</v>
+        <v>36403</v>
       </c>
       <c r="S63" t="n">
-        <v>65950</v>
+        <v>65999</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7155,19 +7155,19 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="P64" t="n">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>7118</v>
+        <v>7120</v>
       </c>
       <c r="S64" t="n">
-        <v>14426</v>
+        <v>14430</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>3274</v>
+        <v>3310</v>
       </c>
       <c r="P65" t="n">
         <v>3419</v>
@@ -7247,10 +7247,10 @@
         <v>266</v>
       </c>
       <c r="R65" t="n">
-        <v>27389</v>
+        <v>27409</v>
       </c>
       <c r="S65" t="n">
-        <v>48698</v>
+        <v>48733</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7331,13 +7331,13 @@
         <v>2561</v>
       </c>
       <c r="Q66" t="n">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="R66" t="n">
-        <v>41751</v>
+        <v>41792</v>
       </c>
       <c r="S66" t="n">
-        <v>81753</v>
+        <v>81831</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>6211</v>
+        <v>6215</v>
       </c>
       <c r="P67" t="n">
         <v>3469</v>
@@ -7421,10 +7421,10 @@
         <v>189</v>
       </c>
       <c r="R67" t="n">
-        <v>23782</v>
+        <v>23803</v>
       </c>
       <c r="S67" t="n">
-        <v>47407</v>
+        <v>47448</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -7495,19 +7495,19 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="P68" t="n">
         <v>3209</v>
       </c>
       <c r="Q68" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R68" t="n">
-        <v>32467</v>
+        <v>32501</v>
       </c>
       <c r="S68" t="n">
-        <v>54656</v>
+        <v>54703</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -7578,19 +7578,19 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>6582</v>
+        <v>6584</v>
       </c>
       <c r="P69" t="n">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="Q69" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R69" t="n">
-        <v>19238</v>
+        <v>19261</v>
       </c>
       <c r="S69" t="n">
-        <v>35432</v>
+        <v>35461</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>5874</v>
+        <v>5872</v>
       </c>
       <c r="P70" t="n">
         <v>4352</v>
@@ -7674,10 +7674,10 @@
         <v>152</v>
       </c>
       <c r="R70" t="n">
-        <v>12178</v>
+        <v>12190</v>
       </c>
       <c r="S70" t="n">
-        <v>30315</v>
+        <v>30355</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -7752,19 +7752,19 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="P71" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="Q71" t="n">
         <v>2416</v>
       </c>
       <c r="R71" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="S71" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -7835,19 +7835,19 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="P72" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="Q72" t="n">
         <v>182</v>
       </c>
       <c r="R72" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="S72" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -7922,19 +7922,19 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>2703</v>
+        <v>2696</v>
       </c>
       <c r="P73" t="n">
-        <v>3885</v>
+        <v>3888</v>
       </c>
       <c r="Q73" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R73" t="n">
-        <v>17091</v>
+        <v>17101</v>
       </c>
       <c r="S73" t="n">
-        <v>38696</v>
+        <v>38732</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8009,19 +8009,19 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="P74" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="Q74" t="n">
         <v>3677</v>
       </c>
       <c r="R74" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="S74" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8096,19 +8096,19 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="P75" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="Q75" t="n">
         <v>1136</v>
       </c>
       <c r="R75" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="S75" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8183,19 +8183,19 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="P76" t="n">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="Q76" t="n">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="R76" t="n">
-        <v>18564</v>
+        <v>18575</v>
       </c>
       <c r="S76" t="n">
-        <v>52430</v>
+        <v>52494</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -8270,19 +8270,19 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>1657</v>
+        <v>1678</v>
       </c>
       <c r="P77" t="n">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="Q77" t="n">
         <v>1065</v>
       </c>
       <c r="R77" t="n">
-        <v>39067</v>
+        <v>39076</v>
       </c>
       <c r="S77" t="n">
-        <v>72879</v>
+        <v>72918</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -8357,19 +8357,19 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="P78" t="n">
         <v>1419</v>
       </c>
       <c r="Q78" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="R78" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="S78" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>2387</v>
+        <v>2413</v>
       </c>
       <c r="P79" t="n">
         <v>1996</v>
@@ -8453,10 +8453,10 @@
         <v>1142</v>
       </c>
       <c r="R79" t="n">
-        <v>52930</v>
+        <v>52934</v>
       </c>
       <c r="S79" t="n">
-        <v>119163</v>
+        <v>119221</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -8531,19 +8531,19 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="P80" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="Q80" t="n">
         <v>312</v>
       </c>
       <c r="R80" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="S80" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -8618,19 +8618,19 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>3654</v>
+        <v>3705</v>
       </c>
       <c r="P81" t="n">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="Q81" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R81" t="n">
-        <v>29830</v>
+        <v>29835</v>
       </c>
       <c r="S81" t="n">
-        <v>66919</v>
+        <v>66966</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>303.6</v>
+        <v>303.3</v>
       </c>
       <c r="D9" t="n">
         <v>5.95</v>
@@ -826,7 +826,7 @@
         <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>18213</v>
+        <v>18197</v>
       </c>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -1467,16 +1467,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>172.9</v>
+        <v>172.3</v>
       </c>
       <c r="D25" t="n">
         <v>7.57</v>
       </c>
       <c r="E25" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F25" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G25" t="n">
         <v>28</v>
@@ -1485,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="I25" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J25" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>10419</v>
+        <v>10384</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1813,19 +1813,19 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" t="n">
         <v>42</v>
       </c>
       <c r="Q2" t="n">
-        <v>86295</v>
+        <v>86255</v>
       </c>
       <c r="R2" t="n">
-        <v>1015015</v>
+        <v>1014558</v>
       </c>
       <c r="S2" t="n">
-        <v>1966181</v>
+        <v>1965187</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -1896,19 +1896,19 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P3" t="n">
         <v>639</v>
       </c>
       <c r="Q3" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="R3" t="n">
-        <v>224575</v>
+        <v>224491</v>
       </c>
       <c r="S3" t="n">
-        <v>396555</v>
+        <v>396379</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1983,19 +1983,19 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P4" t="n">
         <v>261</v>
       </c>
       <c r="Q4" t="n">
-        <v>16786</v>
+        <v>16780</v>
       </c>
       <c r="R4" t="n">
-        <v>387745</v>
+        <v>387605</v>
       </c>
       <c r="S4" t="n">
-        <v>800077</v>
+        <v>799739</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3215</v>
+        <v>3176</v>
       </c>
       <c r="P5" t="n">
         <v>1942</v>
       </c>
       <c r="Q5" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="R5" t="n">
-        <v>45220</v>
+        <v>45203</v>
       </c>
       <c r="S5" t="n">
-        <v>122807</v>
+        <v>122688</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>4753</v>
+        <v>4726</v>
       </c>
       <c r="P6" t="n">
-        <v>5642</v>
+        <v>5638</v>
       </c>
       <c r="Q6" t="n">
         <v>16</v>
       </c>
       <c r="R6" t="n">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="S6" t="n">
-        <v>16262</v>
+        <v>16260</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="P7" t="n">
         <v>1361</v>
@@ -2253,10 +2253,10 @@
         <v>2067</v>
       </c>
       <c r="R7" t="n">
-        <v>91626</v>
+        <v>91608</v>
       </c>
       <c r="S7" t="n">
-        <v>190661</v>
+        <v>190549</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="P8" t="n">
         <v>944</v>
@@ -2340,10 +2340,10 @@
         <v>4172</v>
       </c>
       <c r="R8" t="n">
-        <v>85567</v>
+        <v>85543</v>
       </c>
       <c r="S8" t="n">
-        <v>277575</v>
+        <v>277422</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -2418,19 +2418,19 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>1841</v>
+        <v>1827</v>
       </c>
       <c r="P9" t="n">
-        <v>4671</v>
+        <v>4667</v>
       </c>
       <c r="Q9" t="n">
         <v>244</v>
       </c>
       <c r="R9" t="n">
-        <v>13923</v>
+        <v>13919</v>
       </c>
       <c r="S9" t="n">
-        <v>26156</v>
+        <v>26125</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2505,19 +2505,19 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P10" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q10" t="n">
         <v>1388</v>
       </c>
       <c r="R10" t="n">
-        <v>113360</v>
+        <v>113308</v>
       </c>
       <c r="S10" t="n">
-        <v>203059</v>
+        <v>202876</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2598,13 +2598,13 @@
         <v>122</v>
       </c>
       <c r="Q11" t="n">
-        <v>57568</v>
+        <v>57506</v>
       </c>
       <c r="R11" t="n">
-        <v>466402</v>
+        <v>465965</v>
       </c>
       <c r="S11" t="n">
-        <v>1228459</v>
+        <v>1227446</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2679,19 +2679,19 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P12" t="n">
         <v>9</v>
       </c>
       <c r="Q12" t="n">
-        <v>83001</v>
+        <v>82973</v>
       </c>
       <c r="R12" t="n">
-        <v>2056915</v>
+        <v>2056155</v>
       </c>
       <c r="S12" t="n">
-        <v>2986214</v>
+        <v>2984928</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>17</v>
       </c>
       <c r="Q13" t="n">
-        <v>237229</v>
+        <v>237054</v>
       </c>
       <c r="R13" t="n">
-        <v>1434888</v>
+        <v>1433761</v>
       </c>
       <c r="S13" t="n">
-        <v>2524779</v>
+        <v>2522600</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="P14" t="n">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>3046</v>
       </c>
       <c r="R14" t="n">
-        <v>86921</v>
+        <v>86901</v>
       </c>
       <c r="S14" t="n">
-        <v>192092</v>
+        <v>191982</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2943,16 +2943,16 @@
         <v>8021</v>
       </c>
       <c r="P15" t="n">
-        <v>8775</v>
+        <v>8769</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="S15" t="n">
-        <v>5422</v>
+        <v>5423</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -3027,19 +3027,19 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="P16" t="n">
         <v>772</v>
       </c>
       <c r="Q16" t="n">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="R16" t="n">
-        <v>152592</v>
+        <v>152563</v>
       </c>
       <c r="S16" t="n">
-        <v>337604</v>
+        <v>337409</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3114,19 +3114,19 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2587</v>
+        <v>2550</v>
       </c>
       <c r="P17" t="n">
         <v>1695</v>
       </c>
       <c r="Q17" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="R17" t="n">
-        <v>56872</v>
+        <v>56864</v>
       </c>
       <c r="S17" t="n">
-        <v>146304</v>
+        <v>146257</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="P18" t="n">
         <v>975</v>
@@ -3210,10 +3210,10 @@
         <v>5351</v>
       </c>
       <c r="R18" t="n">
-        <v>60519</v>
+        <v>60486</v>
       </c>
       <c r="S18" t="n">
-        <v>269860</v>
+        <v>269599</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -3288,19 +3288,19 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2968</v>
+        <v>2986</v>
       </c>
       <c r="P19" t="n">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="Q19" t="n">
         <v>1379</v>
       </c>
       <c r="R19" t="n">
-        <v>82214</v>
+        <v>82208</v>
       </c>
       <c r="S19" t="n">
-        <v>192416</v>
+        <v>192365</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -3375,19 +3375,19 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="P20" t="n">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="Q20" t="n">
         <v>928</v>
       </c>
       <c r="R20" t="n">
-        <v>42472</v>
+        <v>42462</v>
       </c>
       <c r="S20" t="n">
-        <v>102085</v>
+        <v>101995</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3462,19 +3462,19 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2030</v>
+        <v>2045</v>
       </c>
       <c r="P21" t="n">
         <v>4810</v>
       </c>
       <c r="Q21" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R21" t="n">
-        <v>8279</v>
+        <v>8273</v>
       </c>
       <c r="S21" t="n">
-        <v>24301</v>
+        <v>24288</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3549,19 +3549,19 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P22" t="n">
         <v>45</v>
       </c>
       <c r="Q22" t="n">
-        <v>111746</v>
+        <v>111705</v>
       </c>
       <c r="R22" t="n">
-        <v>1149283</v>
+        <v>1148687</v>
       </c>
       <c r="S22" t="n">
-        <v>1922324</v>
+        <v>1921298</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2075</v>
+        <v>2060</v>
       </c>
       <c r="P23" t="n">
         <v>964</v>
@@ -3641,10 +3641,10 @@
         <v>766</v>
       </c>
       <c r="R23" t="n">
-        <v>150633</v>
+        <v>150590</v>
       </c>
       <c r="S23" t="n">
-        <v>271802</v>
+        <v>271722</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3715,19 +3715,19 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P24" t="n">
         <v>177</v>
       </c>
       <c r="Q24" t="n">
-        <v>30612</v>
+        <v>30599</v>
       </c>
       <c r="R24" t="n">
-        <v>658215</v>
+        <v>657898</v>
       </c>
       <c r="S24" t="n">
-        <v>986397</v>
+        <v>985843</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3808,13 +3808,13 @@
         <v>302</v>
       </c>
       <c r="Q25" t="n">
-        <v>29794</v>
+        <v>29777</v>
       </c>
       <c r="R25" t="n">
-        <v>385173</v>
+        <v>384919</v>
       </c>
       <c r="S25" t="n">
-        <v>717128</v>
+        <v>716578</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3891,13 +3891,13 @@
         <v>341</v>
       </c>
       <c r="Q26" t="n">
-        <v>13630</v>
+        <v>13625</v>
       </c>
       <c r="R26" t="n">
-        <v>346867</v>
+        <v>346709</v>
       </c>
       <c r="S26" t="n">
-        <v>671385</v>
+        <v>671007</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3968,19 +3968,19 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>913</v>
       </c>
       <c r="Q27" t="n">
-        <v>6372</v>
+        <v>6370</v>
       </c>
       <c r="R27" t="n">
-        <v>141779</v>
+        <v>141740</v>
       </c>
       <c r="S27" t="n">
-        <v>286346</v>
+        <v>286236</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P28" t="n">
         <v>467</v>
@@ -4064,10 +4064,10 @@
         <v>10255</v>
       </c>
       <c r="R28" t="n">
-        <v>243545</v>
+        <v>243471</v>
       </c>
       <c r="S28" t="n">
-        <v>512957</v>
+        <v>512712</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4138,19 +4138,19 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>1818</v>
+        <v>1787</v>
       </c>
       <c r="P29" t="n">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="Q29" t="n">
         <v>96</v>
       </c>
       <c r="R29" t="n">
-        <v>28326</v>
+        <v>28324</v>
       </c>
       <c r="S29" t="n">
-        <v>54312</v>
+        <v>54310</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4227,13 +4227,13 @@
         <v>208</v>
       </c>
       <c r="Q30" t="n">
-        <v>14410</v>
+        <v>14408</v>
       </c>
       <c r="R30" t="n">
-        <v>539935</v>
+        <v>539696</v>
       </c>
       <c r="S30" t="n">
-        <v>912054</v>
+        <v>911525</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4308,19 +4308,19 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>4670</v>
+        <v>4695</v>
       </c>
       <c r="P31" t="n">
         <v>1370</v>
       </c>
       <c r="Q31" t="n">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="R31" t="n">
-        <v>86319</v>
+        <v>86305</v>
       </c>
       <c r="S31" t="n">
-        <v>189276</v>
+        <v>189192</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4391,19 +4391,19 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2934</v>
+        <v>2955</v>
       </c>
       <c r="P32" t="n">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="Q32" t="n">
         <v>260</v>
       </c>
       <c r="R32" t="n">
-        <v>27840</v>
+        <v>27834</v>
       </c>
       <c r="S32" t="n">
-        <v>56606</v>
+        <v>56599</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4478,19 +4478,19 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2829</v>
+        <v>2808</v>
       </c>
       <c r="P33" t="n">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q33" t="n">
         <v>1150</v>
       </c>
       <c r="R33" t="n">
-        <v>79411</v>
+        <v>79400</v>
       </c>
       <c r="S33" t="n">
-        <v>165734</v>
+        <v>165669</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4561,19 +4561,19 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>8678</v>
+        <v>8693</v>
       </c>
       <c r="P34" t="n">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="Q34" t="n">
         <v>187</v>
       </c>
       <c r="R34" t="n">
-        <v>27567</v>
+        <v>27564</v>
       </c>
       <c r="S34" t="n">
-        <v>51219</v>
+        <v>51207</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4648,19 +4648,19 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>3072</v>
+        <v>3091</v>
       </c>
       <c r="P35" t="n">
         <v>3029</v>
       </c>
       <c r="Q35" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R35" t="n">
-        <v>29709</v>
+        <v>29705</v>
       </c>
       <c r="S35" t="n">
-        <v>61034</v>
+        <v>60992</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4735,19 +4735,19 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>3935</v>
+        <v>3951</v>
       </c>
       <c r="P36" t="n">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="Q36" t="n">
         <v>472</v>
       </c>
       <c r="R36" t="n">
-        <v>55040</v>
+        <v>55031</v>
       </c>
       <c r="S36" t="n">
-        <v>114627</v>
+        <v>114589</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4818,19 +4818,19 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>4208</v>
+        <v>4177</v>
       </c>
       <c r="P37" t="n">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="Q37" t="n">
         <v>186</v>
       </c>
       <c r="R37" t="n">
-        <v>42403</v>
+        <v>42394</v>
       </c>
       <c r="S37" t="n">
-        <v>76354</v>
+        <v>76339</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4905,19 +4905,19 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>7292</v>
+        <v>7210</v>
       </c>
       <c r="P38" t="n">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="Q38" t="n">
         <v>14</v>
       </c>
       <c r="R38" t="n">
-        <v>6447</v>
+        <v>6444</v>
       </c>
       <c r="S38" t="n">
-        <v>17554</v>
+        <v>17540</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4992,19 +4992,19 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>10810</v>
+        <v>10791</v>
       </c>
       <c r="P39" t="n">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="Q39" t="n">
         <v>22</v>
       </c>
       <c r="R39" t="n">
-        <v>7313</v>
+        <v>7310</v>
       </c>
       <c r="S39" t="n">
-        <v>18718</v>
+        <v>18711</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5079,19 +5079,19 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P40" t="n">
         <v>716</v>
       </c>
       <c r="Q40" t="n">
-        <v>8828</v>
+        <v>8827</v>
       </c>
       <c r="R40" t="n">
-        <v>146223</v>
+        <v>146166</v>
       </c>
       <c r="S40" t="n">
-        <v>359562</v>
+        <v>359363</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5166,19 +5166,19 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>4371</v>
+        <v>4391</v>
       </c>
       <c r="P41" t="n">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="Q41" t="n">
         <v>445</v>
       </c>
       <c r="R41" t="n">
-        <v>31566</v>
+        <v>31554</v>
       </c>
       <c r="S41" t="n">
-        <v>85700</v>
+        <v>85644</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>2443</v>
+        <v>2458</v>
       </c>
       <c r="P42" t="n">
         <v>484</v>
@@ -5262,10 +5262,10 @@
         <v>4174</v>
       </c>
       <c r="R42" t="n">
-        <v>260389</v>
+        <v>260340</v>
       </c>
       <c r="S42" t="n">
-        <v>500003</v>
+        <v>499813</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5340,19 +5340,19 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="P43" t="n">
         <v>1136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="R43" t="n">
-        <v>106085</v>
+        <v>106077</v>
       </c>
       <c r="S43" t="n">
-        <v>232604</v>
+        <v>232527</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5427,19 +5427,19 @@
         </is>
       </c>
       <c r="O44" t="n">
-        <v>3617</v>
+        <v>3643</v>
       </c>
       <c r="P44" t="n">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Q44" t="n">
         <v>1281</v>
       </c>
       <c r="R44" t="n">
-        <v>100499</v>
+        <v>100497</v>
       </c>
       <c r="S44" t="n">
-        <v>188790</v>
+        <v>188739</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5514,19 +5514,19 @@
         </is>
       </c>
       <c r="O45" t="n">
-        <v>5919</v>
+        <v>5915</v>
       </c>
       <c r="P45" t="n">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="Q45" t="n">
         <v>199</v>
       </c>
       <c r="R45" t="n">
-        <v>31398</v>
+        <v>31399</v>
       </c>
       <c r="S45" t="n">
-        <v>78057</v>
+        <v>78040</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5601,19 +5601,19 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>6900</v>
+        <v>6887</v>
       </c>
       <c r="P46" t="n">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="Q46" t="n">
         <v>360</v>
       </c>
       <c r="R46" t="n">
-        <v>81380</v>
+        <v>81363</v>
       </c>
       <c r="S46" t="n">
-        <v>153499</v>
+        <v>153401</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5688,19 +5688,19 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="P47" t="n">
         <v>1229</v>
       </c>
       <c r="Q47" t="n">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="R47" t="n">
-        <v>99966</v>
+        <v>99948</v>
       </c>
       <c r="S47" t="n">
-        <v>212934</v>
+        <v>212851</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5775,19 +5775,19 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="P48" t="n">
         <v>2128</v>
       </c>
       <c r="Q48" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R48" t="n">
-        <v>60538</v>
+        <v>60527</v>
       </c>
       <c r="S48" t="n">
-        <v>108707</v>
+        <v>108669</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5862,19 +5862,19 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="P49" t="n">
         <v>638</v>
       </c>
       <c r="Q49" t="n">
-        <v>8558</v>
+        <v>8547</v>
       </c>
       <c r="R49" t="n">
-        <v>172117</v>
+        <v>171967</v>
       </c>
       <c r="S49" t="n">
-        <v>397130</v>
+        <v>396752</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5949,19 +5949,19 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>1883</v>
+        <v>1856</v>
       </c>
       <c r="P50" t="n">
         <v>1317</v>
       </c>
       <c r="Q50" t="n">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="R50" t="n">
-        <v>80311</v>
+        <v>80291</v>
       </c>
       <c r="S50" t="n">
-        <v>197088</v>
+        <v>196984</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6036,19 +6036,19 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>2835</v>
+        <v>2813</v>
       </c>
       <c r="P51" t="n">
         <v>943</v>
       </c>
       <c r="Q51" t="n">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="R51" t="n">
-        <v>131797</v>
+        <v>131780</v>
       </c>
       <c r="S51" t="n">
-        <v>277635</v>
+        <v>277596</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="O52" t="n">
-        <v>8286</v>
+        <v>8302</v>
       </c>
       <c r="P52" t="n">
-        <v>6424</v>
+        <v>6418</v>
       </c>
       <c r="Q52" t="n">
         <v>14</v>
       </c>
       <c r="R52" t="n">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="S52" t="n">
-        <v>11597</v>
+        <v>11592</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6210,19 +6210,19 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="P53" t="n">
         <v>466</v>
       </c>
       <c r="Q53" t="n">
-        <v>4421</v>
+        <v>4418</v>
       </c>
       <c r="R53" t="n">
-        <v>247060</v>
+        <v>247023</v>
       </c>
       <c r="S53" t="n">
-        <v>514432</v>
+        <v>514273</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="O54" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="P54" t="n">
         <v>874</v>
@@ -6306,10 +6306,10 @@
         <v>2983</v>
       </c>
       <c r="R54" t="n">
-        <v>178910</v>
+        <v>178880</v>
       </c>
       <c r="S54" t="n">
-        <v>304988</v>
+        <v>304856</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6384,19 +6384,19 @@
         </is>
       </c>
       <c r="O55" t="n">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="P55" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q55" t="n">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="R55" t="n">
-        <v>151505</v>
+        <v>151482</v>
       </c>
       <c r="S55" t="n">
-        <v>268113</v>
+        <v>268022</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6471,19 +6471,19 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="P56" t="n">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="Q56" t="n">
         <v>1490</v>
       </c>
       <c r="R56" t="n">
-        <v>53137</v>
+        <v>53125</v>
       </c>
       <c r="S56" t="n">
-        <v>104025</v>
+        <v>103982</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6558,19 +6558,19 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>3147</v>
+        <v>3160</v>
       </c>
       <c r="P57" t="n">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="Q57" t="n">
         <v>276</v>
       </c>
       <c r="R57" t="n">
-        <v>15829</v>
+        <v>15826</v>
       </c>
       <c r="S57" t="n">
-        <v>51050</v>
+        <v>50995</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6645,19 +6645,19 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>2353</v>
+        <v>2369</v>
       </c>
       <c r="P58" t="n">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="Q58" t="n">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R58" t="n">
-        <v>43447</v>
+        <v>43442</v>
       </c>
       <c r="S58" t="n">
-        <v>107867</v>
+        <v>107825</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6732,19 +6732,19 @@
         </is>
       </c>
       <c r="O59" t="n">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="P59" t="n">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="Q59" t="n">
         <v>1015</v>
       </c>
       <c r="R59" t="n">
-        <v>34977</v>
+        <v>34966</v>
       </c>
       <c r="S59" t="n">
-        <v>68011</v>
+        <v>67980</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>4384</v>
+        <v>4391</v>
       </c>
       <c r="P60" t="n">
         <v>912</v>
@@ -6828,10 +6828,10 @@
         <v>1465</v>
       </c>
       <c r="R60" t="n">
-        <v>137897</v>
+        <v>137883</v>
       </c>
       <c r="S60" t="n">
-        <v>286467</v>
+        <v>286332</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6906,19 +6906,19 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="P61" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="Q61" t="n">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="R61" t="n">
-        <v>64341</v>
+        <v>64290</v>
       </c>
       <c r="S61" t="n">
-        <v>142699</v>
+        <v>142532</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6992,16 +6992,16 @@
         <v>678</v>
       </c>
       <c r="P62" t="n">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="Q62" t="n">
         <v>1169</v>
       </c>
       <c r="R62" t="n">
-        <v>49316</v>
+        <v>49276</v>
       </c>
       <c r="S62" t="n">
-        <v>89790</v>
+        <v>89721</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7072,19 +7072,19 @@
         </is>
       </c>
       <c r="O63" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="P63" t="n">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="Q63" t="n">
         <v>1119</v>
       </c>
       <c r="R63" t="n">
-        <v>36403</v>
+        <v>36376</v>
       </c>
       <c r="S63" t="n">
-        <v>65999</v>
+        <v>65950</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7155,19 +7155,19 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="P64" t="n">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>7120</v>
+        <v>7118</v>
       </c>
       <c r="S64" t="n">
-        <v>14430</v>
+        <v>14426</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="O65" t="n">
-        <v>3310</v>
+        <v>3274</v>
       </c>
       <c r="P65" t="n">
         <v>3419</v>
@@ -7247,10 +7247,10 @@
         <v>266</v>
       </c>
       <c r="R65" t="n">
-        <v>27409</v>
+        <v>27389</v>
       </c>
       <c r="S65" t="n">
-        <v>48733</v>
+        <v>48698</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7331,13 +7331,13 @@
         <v>2561</v>
       </c>
       <c r="Q66" t="n">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="R66" t="n">
-        <v>41792</v>
+        <v>41751</v>
       </c>
       <c r="S66" t="n">
-        <v>81831</v>
+        <v>81753</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>6215</v>
+        <v>6211</v>
       </c>
       <c r="P67" t="n">
         <v>3469</v>
@@ -7421,10 +7421,10 @@
         <v>189</v>
       </c>
       <c r="R67" t="n">
-        <v>23803</v>
+        <v>23782</v>
       </c>
       <c r="S67" t="n">
-        <v>47448</v>
+        <v>47407</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -7495,19 +7495,19 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="P68" t="n">
         <v>3209</v>
       </c>
       <c r="Q68" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R68" t="n">
-        <v>32501</v>
+        <v>32467</v>
       </c>
       <c r="S68" t="n">
-        <v>54703</v>
+        <v>54656</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -7578,19 +7578,19 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>6584</v>
+        <v>6582</v>
       </c>
       <c r="P69" t="n">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="Q69" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R69" t="n">
-        <v>19261</v>
+        <v>19238</v>
       </c>
       <c r="S69" t="n">
-        <v>35461</v>
+        <v>35432</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="P70" t="n">
         <v>4352</v>
@@ -7674,10 +7674,10 @@
         <v>152</v>
       </c>
       <c r="R70" t="n">
-        <v>12190</v>
+        <v>12178</v>
       </c>
       <c r="S70" t="n">
-        <v>30355</v>
+        <v>30315</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -7752,19 +7752,19 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="P71" t="n">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="Q71" t="n">
         <v>2416</v>
       </c>
       <c r="R71" t="n">
-        <v>92422</v>
+        <v>92388</v>
       </c>
       <c r="S71" t="n">
-        <v>166077</v>
+        <v>165966</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -7835,19 +7835,19 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="P72" t="n">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="Q72" t="n">
         <v>182</v>
       </c>
       <c r="R72" t="n">
-        <v>28583</v>
+        <v>28571</v>
       </c>
       <c r="S72" t="n">
-        <v>50248</v>
+        <v>50228</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -7922,19 +7922,19 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>2696</v>
+        <v>2703</v>
       </c>
       <c r="P73" t="n">
-        <v>3888</v>
+        <v>3885</v>
       </c>
       <c r="Q73" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R73" t="n">
-        <v>17101</v>
+        <v>17091</v>
       </c>
       <c r="S73" t="n">
-        <v>38732</v>
+        <v>38696</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8009,19 +8009,19 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P74" t="n">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="Q74" t="n">
         <v>3677</v>
       </c>
       <c r="R74" t="n">
-        <v>99506</v>
+        <v>99473</v>
       </c>
       <c r="S74" t="n">
-        <v>179117</v>
+        <v>179014</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -8096,19 +8096,19 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="P75" t="n">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="Q75" t="n">
         <v>1136</v>
       </c>
       <c r="R75" t="n">
-        <v>67958</v>
+        <v>67937</v>
       </c>
       <c r="S75" t="n">
-        <v>113572</v>
+        <v>113509</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8183,19 +8183,19 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="P76" t="n">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="Q76" t="n">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="R76" t="n">
-        <v>18575</v>
+        <v>18564</v>
       </c>
       <c r="S76" t="n">
-        <v>52494</v>
+        <v>52430</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -8270,19 +8270,19 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="P77" t="n">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="Q77" t="n">
         <v>1065</v>
       </c>
       <c r="R77" t="n">
-        <v>39076</v>
+        <v>39067</v>
       </c>
       <c r="S77" t="n">
-        <v>72918</v>
+        <v>72879</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -8357,19 +8357,19 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="P78" t="n">
         <v>1419</v>
       </c>
       <c r="Q78" t="n">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="R78" t="n">
-        <v>72806</v>
+        <v>72794</v>
       </c>
       <c r="S78" t="n">
-        <v>181226</v>
+        <v>181163</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="O79" t="n">
-        <v>2413</v>
+        <v>2387</v>
       </c>
       <c r="P79" t="n">
         <v>1996</v>
@@ -8453,10 +8453,10 @@
         <v>1142</v>
       </c>
       <c r="R79" t="n">
-        <v>52934</v>
+        <v>52930</v>
       </c>
       <c r="S79" t="n">
-        <v>119221</v>
+        <v>119163</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -8531,19 +8531,19 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>3008</v>
+        <v>3017</v>
       </c>
       <c r="P80" t="n">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="Q80" t="n">
         <v>312</v>
       </c>
       <c r="R80" t="n">
-        <v>26024</v>
+        <v>26022</v>
       </c>
       <c r="S80" t="n">
-        <v>53150</v>
+        <v>53129</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -8618,19 +8618,19 @@
         </is>
       </c>
       <c r="O81" t="n">
-        <v>3705</v>
+        <v>3654</v>
       </c>
       <c r="P81" t="n">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="Q81" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R81" t="n">
-        <v>29835</v>
+        <v>29830</v>
       </c>
       <c r="S81" t="n">
-        <v>66966</v>
+        <v>66919</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
